--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_793.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_793.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32422-d3533430-Reviews-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>202</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Travelodge-Inn-Suites-By-Wyndham-Gardena-CA.h5494358.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_793.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_793.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1820 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r576517811-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>32422</t>
+  </si>
+  <si>
+    <t>3533430</t>
+  </si>
+  <si>
+    <t>576517811</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>The friendliest place in town.</t>
+  </si>
+  <si>
+    <t>Great staff. Cleaning staff is very good and will give you whatever you ask for with a nice attitude. When there was a problem with the laundry room, I was refunded my money and clothes were dried again at no cost.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r572890990-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>572890990</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>VERY DIRTY</t>
+  </si>
+  <si>
+    <t>The hotel room I was assigned was VERY dirty.  The carpet had one spot with a wad of gum stuck to it and the carpeting was dirty enough to completely mark the bottom of my white socks.  Luckily I had to cut my trip short to return home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r562738639-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>562738639</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Gardena Stay</t>
+  </si>
+  <si>
+    <t>I had to wait awhile to check in,  nobody at counter and no bell ( it was a late check-in).  I wasn't told what to use for an internet connection. No refrigerator in the room, and the air conditioner/eater didn't work. Breakfast was very minimal.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r547223596-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>547223596</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>I’m from Bakersfield stayed 12/9 for one night with my...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m from Bakersfield stayed 12/9 for one night with my family, it was a 2 bed with kitchen, a little downfall was that it didn’t come with pots and pans but all in all great experience and my maria at the front desk was great! Great customer service </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r544273052-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>544273052</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r543717384-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>543717384</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r515038168-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>515038168</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r515002887-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>515002887</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r513922419-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>513922419</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r506790510-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>506790510</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r506015132-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>506015132</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Quiet Room, Great sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a construction worker,  I'm very big on a good night sleep. The beds at this hotel are very comfortable. Coffee available to the guest is always a good thing. Great service, for  an affordable price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r505885391-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>505885391</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>Warning!!! Please, do not go here is a scam hotel.I booked online a week ago for 2 nights than when I got there late midnight, I see the lobby's light was off and no one was there. I have been so many hotels and business trips, I thought they must have a 24 hour person there . So I had to drive around was looking for another place to stay. The next morning, I drop by the place and tell I was here and they said they already got people 24 hour. I told I waited for like 15 min and they said maybe they were on the back .. the light was off .. so I tell them I will stay for tonight then, they told they would charge me two nights anyway because that what I booked for how can of I was not there and stay no one checked me in .. so I looked for another hotel, but I called the manager of this place, and he won't do anything. Even they take my money,  so please don't book this hotel, very unfriendly and won't help anything!MoreShow less</t>
+  </si>
+  <si>
+    <t>Warning!!! Please, do not go here is a scam hotel.I booked online a week ago for 2 nights than when I got there late midnight, I see the lobby's light was off and no one was there. I have been so many hotels and business trips, I thought they must have a 24 hour person there . So I had to drive around was looking for another place to stay. The next morning, I drop by the place and tell I was here and they said they already got people 24 hour. I told I waited for like 15 min and they said maybe they were on the back .. the light was off .. so I tell them I will stay for tonight then, they told they would charge me two nights anyway because that what I booked for how can of I was not there and stay no one checked me in .. so I looked for another hotel, but I called the manager of this place, and he won't do anything. Even they take my money,  so please don't book this hotel, very unfriendly and won't help anything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r501699212-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>501699212</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r496974209-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>496974209</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Great Service! HIGHLY RECOMMEND!</t>
+  </si>
+  <si>
+    <t>My two-year-old daughter and I traveled from Texas with my husband for work at the refineries. To start off with they were already the cheapest hotel around but it is a bonus whenever the hotel does not Jack up their rates when a turnaround is in town! The rooms are very spacious we had a 1 bed 1level suite and it had  a huge kitchenette a full size fridge in our room and a four burner stove stove and oven! Also an island/bar... Queen bed .. 2 seater sofa.. coffee table .. dresser .. desk.. bar stools.. night stands.. Huge closet! Enough room for my daughter to run around and play. It was also great that they had movie channels along with Disney and Nickelodeon. As far as the staff goes they are absolutely amazing the housekeeping ( Lita, Ingrid, and Noami ) always did a great job cleaning up behind my messy 2 yr old and they even loved on her.. She was always excited to see them! The front desk ladies ( Carla and Maria ) were always so helpful ... informing me about places to take my kids or where to shop for certain things.... And so much more!!! I adore all the women they are the sweetest ladies and made us all feel at home!! Byron the manager and Oscar maintenance were also very helpful with helping me with the washing machine. This place may not...My two-year-old daughter and I traveled from Texas with my husband for work at the refineries. To start off with they were already the cheapest hotel around but it is a bonus whenever the hotel does not Jack up their rates when a turnaround is in town! The rooms are very spacious we had a 1 bed 1level suite and it had  a huge kitchenette a full size fridge in our room and a four burner stove stove and oven! Also an island/bar... Queen bed .. 2 seater sofa.. coffee table .. dresser .. desk.. bar stools.. night stands.. Huge closet! Enough room for my daughter to run around and play. It was also great that they had movie channels along with Disney and Nickelodeon. As far as the staff goes they are absolutely amazing the housekeeping ( Lita, Ingrid, and Noami ) always did a great job cleaning up behind my messy 2 yr old and they even loved on her.. She was always excited to see them! The front desk ladies ( Carla and Maria ) were always so helpful ... informing me about places to take my kids or where to shop for certain things.... And so much more!!! I adore all the women they are the sweetest ladies and made us all feel at home!! Byron the manager and Oscar maintenance were also very helpful with helping me with the washing machine. This place may not be a 5star hilton hotel but the charm of the people make this place amazing! I know I raved on and on.. But coming from thousands of miles with a toddler and staying in a hotel is stressful and scary and I never felt that way here! Home away from home. The ONLY downside I have ( yes I do laugh about it ) is we drive a big megacab dually and parking that in the parking garage is a challenge ... But I am super proud of myself and always felt accomplished after parking :-) and this isn't just the hotel everything around here is compact parking haha. Well to finish yall off I HIGHLY recommend this hotel.. Call Carla now and book a room you won't regret it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Byron G, Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>My two-year-old daughter and I traveled from Texas with my husband for work at the refineries. To start off with they were already the cheapest hotel around but it is a bonus whenever the hotel does not Jack up their rates when a turnaround is in town! The rooms are very spacious we had a 1 bed 1level suite and it had  a huge kitchenette a full size fridge in our room and a four burner stove stove and oven! Also an island/bar... Queen bed .. 2 seater sofa.. coffee table .. dresser .. desk.. bar stools.. night stands.. Huge closet! Enough room for my daughter to run around and play. It was also great that they had movie channels along with Disney and Nickelodeon. As far as the staff goes they are absolutely amazing the housekeeping ( Lita, Ingrid, and Noami ) always did a great job cleaning up behind my messy 2 yr old and they even loved on her.. She was always excited to see them! The front desk ladies ( Carla and Maria ) were always so helpful ... informing me about places to take my kids or where to shop for certain things.... And so much more!!! I adore all the women they are the sweetest ladies and made us all feel at home!! Byron the manager and Oscar maintenance were also very helpful with helping me with the washing machine. This place may not...My two-year-old daughter and I traveled from Texas with my husband for work at the refineries. To start off with they were already the cheapest hotel around but it is a bonus whenever the hotel does not Jack up their rates when a turnaround is in town! The rooms are very spacious we had a 1 bed 1level suite and it had  a huge kitchenette a full size fridge in our room and a four burner stove stove and oven! Also an island/bar... Queen bed .. 2 seater sofa.. coffee table .. dresser .. desk.. bar stools.. night stands.. Huge closet! Enough room for my daughter to run around and play. It was also great that they had movie channels along with Disney and Nickelodeon. As far as the staff goes they are absolutely amazing the housekeeping ( Lita, Ingrid, and Noami ) always did a great job cleaning up behind my messy 2 yr old and they even loved on her.. She was always excited to see them! The front desk ladies ( Carla and Maria ) were always so helpful ... informing me about places to take my kids or where to shop for certain things.... And so much more!!! I adore all the women they are the sweetest ladies and made us all feel at home!! Byron the manager and Oscar maintenance were also very helpful with helping me with the washing machine. This place may not be a 5star hilton hotel but the charm of the people make this place amazing! I know I raved on and on.. But coming from thousands of miles with a toddler and staying in a hotel is stressful and scary and I never felt that way here! Home away from home. The ONLY downside I have ( yes I do laugh about it ) is we drive a big megacab dually and parking that in the parking garage is a challenge ... But I am super proud of myself and always felt accomplished after parking :-) and this isn't just the hotel everything around here is compact parking haha. Well to finish yall off I HIGHLY recommend this hotel.. Call Carla now and book a room you won't regret it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r495017988-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>495017988</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great experiments at the travelodge inn</t>
+  </si>
+  <si>
+    <t>I stayed here for a week with my family and I was pleasantly surprise with the quality and service .I highly recommended it to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a week with my family and I was pleasantly surprise with the quality and service .I highly recommended it to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r492238180-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>492238180</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Appearance isn't everything or is it?</t>
+  </si>
+  <si>
+    <t>I was hesitant when my dad said he booked this hotel because of the mixed reviews.  The only thing that impressed was the size of the room much bigger than our Vegas hotel.  The layout is weird for the location of the bathroom.  Shower was hot bed was comfy.  I wouldn't stay long term.  Breakfast was very basic and parking a little tight.  View of the highway not a place for scenery.    MoreShow less</t>
+  </si>
+  <si>
+    <t>Byron G, Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>I was hesitant when my dad said he booked this hotel because of the mixed reviews.  The only thing that impressed was the size of the room much bigger than our Vegas hotel.  The layout is weird for the location of the bathroom.  Shower was hot bed was comfy.  I wouldn't stay long term.  Breakfast was very basic and parking a little tight.  View of the highway not a place for scenery.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r491648023-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>491648023</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Concert with friends</t>
+  </si>
+  <si>
+    <t>Made an error on my reservation and management was nice enough to give me a 2level suite upgrade, breakfast was nice specially the breakfast attendant she was so helpful and sweet. Yes yes yes will come back again thank you Travelodge MoreShow less</t>
+  </si>
+  <si>
+    <t>Made an error on my reservation and management was nice enough to give me a 2level suite upgrade, breakfast was nice specially the breakfast attendant she was so helpful and sweet. Yes yes yes will come back again thank you Travelodge More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r490127706-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>490127706</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Byron G, Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r484452883-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>484452883</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff. Good value</t>
+  </si>
+  <si>
+    <t>Nice suite for the value. Entrance via Parking garage was a bit more intimidating but hotel desk team Maria, Tanya, Helen and Carla are terrific. MoreShow less</t>
+  </si>
+  <si>
+    <t>Byron G, Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Nice suite for the value. Entrance via Parking garage was a bit more intimidating but hotel desk team Maria, Tanya, Helen and Carla are terrific. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r476849692-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>476849692</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r476639618-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>476639618</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r468327261-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>468327261</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Not your tipical Travelodge experience</t>
+  </si>
+  <si>
+    <t>This was a very bad experience for me and my family,I booked a room here for 4 days and had 2 check out after 1,the conditions of the room were very bad,the icing on the cake was the roches that were crusing later in the evening,will not stay here again,they still have not reimburst my last 3 days like they said they would.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This was a very bad experience for me and my family,I booked a room here for 4 days and had 2 check out after 1,the conditions of the room were very bad,the icing on the cake was the roches that were crusing later in the evening,will not stay here again,they still have not reimburst my last 3 days like they said they would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r468260016-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>468260016</t>
+  </si>
+  <si>
+    <t>Birthday Vacation</t>
+  </si>
+  <si>
+    <t>I have never seen a lobby and breakfast area to a hotel that looked like the one here. I was saying to myself what the hell did I pay for but when I got to my room I didn't care how the lobby looked. My room was veeeeeeeery spacious oh wait no microwave, fridge, or mirror. Only mirror there was in the bathroom. Overall I loved that room. The bed was comfortable and I could smell bleach in the sheets so I was not afraid to sleep on the sheets. Carpet was pretty clean. I loved it Room 103.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have never seen a lobby and breakfast area to a hotel that looked like the one here. I was saying to myself what the hell did I pay for but when I got to my room I didn't care how the lobby looked. My room was veeeeeeeery spacious oh wait no microwave, fridge, or mirror. Only mirror there was in the bathroom. Overall I loved that room. The bed was comfortable and I could smell bleach in the sheets so I was not afraid to sleep on the sheets. Carpet was pretty clean. I loved it Room 103.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r466524920-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>466524920</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Avoid This Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is only good if you need a roof over your head. Their breakfast was cereal and toast. The rooms smelled funny. The room I was in had a shared door to the room next to mine. The other guests were extremely loud and were yelling and running up and down the halls. This establishment looked like it was primarily for hookers and drug dealers.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is only good if you need a roof over your head. Their breakfast was cereal and toast. The rooms smelled funny. The room I was in had a shared door to the room next to mine. The other guests were extremely loud and were yelling and running up and down the halls. This establishment looked like it was primarily for hookers and drug dealers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r463012408-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>463012408</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r458356471-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>458356471</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Have low expectations and it will exceed them</t>
+  </si>
+  <si>
+    <t>Furniture needs to be dusted. But the bed is comfortable. Carpet is old. And the sensor light doesn't cut off so everytime is turned over the light came on. Very frustrating. But it meets the basic needs of having a place to rest. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Furniture needs to be dusted. But the bed is comfortable. Carpet is old. And the sensor light doesn't cut off so everytime is turned over the light came on. Very frustrating. But it meets the basic needs of having a place to rest. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r458338846-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>458338846</t>
+  </si>
+  <si>
+    <t>I wouldnt recommend staying here</t>
+  </si>
+  <si>
+    <t>When we checked in everything seemed ok, but once we got to our room it all went bad. The first thing I noticed was the locks on the door were all broken and looked like they had been kicked in, so I started to look around the rest of the room, when the yelling from somewhere around started, it then there was banging on the common wall to my room, more yelling, door slamming, then into the hallway. I decided that I wasn't going to stay here, picked up my bag and went to leave. I encountered the yellers in the hallway as I was leaving when one of them started getting up at me for looking at them as I was leaving. Checked out, complained to the desk and left.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we checked in everything seemed ok, but once we got to our room it all went bad. The first thing I noticed was the locks on the door were all broken and looked like they had been kicked in, so I started to look around the rest of the room, when the yelling from somewhere around started, it then there was banging on the common wall to my room, more yelling, door slamming, then into the hallway. I decided that I wasn't going to stay here, picked up my bag and went to leave. I encountered the yellers in the hallway as I was leaving when one of them started getting up at me for looking at them as I was leaving. Checked out, complained to the desk and left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r453820831-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>453820831</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Travel Experience</t>
+  </si>
+  <si>
+    <t>Byron and Carla were very friendly and went out of their way to ensure our satisfaction during our stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Byron and Carla were very friendly and went out of their way to ensure our satisfaction during our stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r453091188-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>453091188</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Horrible Stay</t>
+  </si>
+  <si>
+    <t>Heating unit didn't work, kitchen sink backed up and I had to plunge it myself. Toilet seat was brown. There were private parties abd fights every night, keeping me awake. I called to report that and nothing was done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heating unit didn't work, kitchen sink backed up and I had to plunge it myself. Toilet seat was brown. There were private parties abd fights every night, keeping me awake. I called to report that and nothing was done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r449953247-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>449953247</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r437922387-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>437922387</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>I want to call out the front desk clerk who helped me check in (wish I caught her name) 11-12-16.  My reservation was not sent to the hotel via the 3rd party site I used so when I tried to check in, she could not find anything in the system.  After about 10 mins of trying other ways to find it, she called the 3rd party on her cell phone and proceeded to wait on hold for 20+ mins.  Once she got a hold of a service rep, she found out it was their error in not sending the info.  She checked me in to the last room available and apologizing that the bed size was not the same as I reserved even though it was not their error.  It's that type of service you wish you could see more often from all industries!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Byron G, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>I want to call out the front desk clerk who helped me check in (wish I caught her name) 11-12-16.  My reservation was not sent to the hotel via the 3rd party site I used so when I tried to check in, she could not find anything in the system.  After about 10 mins of trying other ways to find it, she called the 3rd party on her cell phone and proceeded to wait on hold for 20+ mins.  Once she got a hold of a service rep, she found out it was their error in not sending the info.  She checked me in to the last room available and apologizing that the bed size was not the same as I reserved even though it was not their error.  It's that type of service you wish you could see more often from all industries!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r435641506-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>435641506</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r435400507-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>435400507</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r422186757-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>422186757</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r419994909-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>419994909</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Visiting Mice</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location, but I was visited by a mouse in my room.  The front desk asked if I wanted to change my room, but I decided what's the use?  I have been in this room for almost a week, I know the room has a mouse in it and moving to a new room may have more mice!  I have been to two other hotels in Gardena area, this is probably the best one to stay, yes even with mice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r416581563-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>416581563</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r408312833-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>408312833</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Shower head broken had to take hot showers, only given 3...</t>
+  </si>
+  <si>
+    <t>Shower head broken had to take hot showers, only given 3 small towels  had to ask for bigger towels twice, parking terrible had to park on street. Bedding not clean.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r406897787-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>406897787</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r406213097-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>406213097</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Very dirty</t>
+  </si>
+  <si>
+    <t>I decided to go with this hotel because in the previous reviews from other they commented it was just remodeled. and it wasn't, it was small, smelly and dirty. I always have a habit of bringing my own sheets and glad I did because I found one bug on the bed. Didn't even get new soap, only used from previous guest, same with the trash. You could just tell that owner don't have high standards. If your picky with hygiene don't stay here. it's gross!!#</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r397993683-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>397993683</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Not like the website pictures</t>
+  </si>
+  <si>
+    <t>Hotel was dirty, smelled like smoke, and didn't look anything like the pictures from the website.  Also the location is not ideal, didn't feel safe.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r390901356-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>390901356</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>DON'T WAST YOUR TIME</t>
+  </si>
+  <si>
+    <t>Got in late after a long day of traveling. The room was so hot and stuffy it was almost unbearable. It was a two story room with only a small wall air conditioner in the lower level; the loft had no air conditioner unit and the window in the loft did not open.  We asked the office for use of a fan, but they said none was available.  They commented "oh, you should have called and we would have turned the air on for you".   Customer service and housekeeping was poor overall; took our hand towels and wash cloths that were not on the floor, but still in use - however did not replace them.   Housekeeping was gone when we noticed and had to go down and get from the desk ourselves.  Also when we arrived there was hairs in one of the beds.  Kitchen was advertised as a 'full kitchen', but no microwave/convention oven, and only  two burners and a small dorm type fridge.  Also they should not advertise as a full kitchen as there  was not one item to use  such as pots/frying pan/toaster, etc.   Also the continental breakfast as advertised was not good at all; it was horrible and cheap!  First of all after check in we found out the time was only to 930 AM, and the items available were only milk, juice, and only two kinds of cereal along with only white bread for toast,...Got in late after a long day of traveling. The room was so hot and stuffy it was almost unbearable. It was a two story room with only a small wall air conditioner in the lower level; the loft had no air conditioner unit and the window in the loft did not open.  We asked the office for use of a fan, but they said none was available.  They commented "oh, you should have called and we would have turned the air on for you".   Customer service and housekeeping was poor overall; took our hand towels and wash cloths that were not on the floor, but still in use - however did not replace them.   Housekeeping was gone when we noticed and had to go down and get from the desk ourselves.  Also when we arrived there was hairs in one of the beds.  Kitchen was advertised as a 'full kitchen', but no microwave/convention oven, and only  two burners and a small dorm type fridge.  Also they should not advertise as a full kitchen as there  was not one item to use  such as pots/frying pan/toaster, etc.   Also the continental breakfast as advertised was not good at all; it was horrible and cheap!  First of all after check in we found out the time was only to 930 AM, and the items available were only milk, juice, and only two kinds of cereal along with only white bread for toast, and cheap individual bear claws/cheese Danishes.   There was no fruit or anything else that normally comes in a basic continental breakfast.  Also poor customer service here as well, the worker brought some more milk out when we asked, but neglected to see that there were no more cups, napkins, spoons, or bear claws/Danishes.    Then right after bringing the spoons before we noticed the other items, she put up a sign stating she went on break.  Three other groups came in and could not get service.  The extra money paid for a motel/hotel room with a full kitchen and a continental breakfast was not worth it at all.  Plus we had to go buy a fan, just so our two teens could sleep in the loft.   TV control worked poorly as well.  The room also appeared recently renovated, but done very cheaply.  Also not enough parking in the parking garage for the rooms they have.   Felt unsecure parking our car over a block away one night.  We do not recommend this travel lodge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got in late after a long day of traveling. The room was so hot and stuffy it was almost unbearable. It was a two story room with only a small wall air conditioner in the lower level; the loft had no air conditioner unit and the window in the loft did not open.  We asked the office for use of a fan, but they said none was available.  They commented "oh, you should have called and we would have turned the air on for you".   Customer service and housekeeping was poor overall; took our hand towels and wash cloths that were not on the floor, but still in use - however did not replace them.   Housekeeping was gone when we noticed and had to go down and get from the desk ourselves.  Also when we arrived there was hairs in one of the beds.  Kitchen was advertised as a 'full kitchen', but no microwave/convention oven, and only  two burners and a small dorm type fridge.  Also they should not advertise as a full kitchen as there  was not one item to use  such as pots/frying pan/toaster, etc.   Also the continental breakfast as advertised was not good at all; it was horrible and cheap!  First of all after check in we found out the time was only to 930 AM, and the items available were only milk, juice, and only two kinds of cereal along with only white bread for toast,...Got in late after a long day of traveling. The room was so hot and stuffy it was almost unbearable. It was a two story room with only a small wall air conditioner in the lower level; the loft had no air conditioner unit and the window in the loft did not open.  We asked the office for use of a fan, but they said none was available.  They commented "oh, you should have called and we would have turned the air on for you".   Customer service and housekeeping was poor overall; took our hand towels and wash cloths that were not on the floor, but still in use - however did not replace them.   Housekeeping was gone when we noticed and had to go down and get from the desk ourselves.  Also when we arrived there was hairs in one of the beds.  Kitchen was advertised as a 'full kitchen', but no microwave/convention oven, and only  two burners and a small dorm type fridge.  Also they should not advertise as a full kitchen as there  was not one item to use  such as pots/frying pan/toaster, etc.   Also the continental breakfast as advertised was not good at all; it was horrible and cheap!  First of all after check in we found out the time was only to 930 AM, and the items available were only milk, juice, and only two kinds of cereal along with only white bread for toast, and cheap individual bear claws/cheese Danishes.   There was no fruit or anything else that normally comes in a basic continental breakfast.  Also poor customer service here as well, the worker brought some more milk out when we asked, but neglected to see that there were no more cups, napkins, spoons, or bear claws/Danishes.    Then right after bringing the spoons before we noticed the other items, she put up a sign stating she went on break.  Three other groups came in and could not get service.  The extra money paid for a motel/hotel room with a full kitchen and a continental breakfast was not worth it at all.  Plus we had to go buy a fan, just so our two teens could sleep in the loft.   TV control worked poorly as well.  The room also appeared recently renovated, but done very cheaply.  Also not enough parking in the parking garage for the rooms they have.   Felt unsecure parking our car over a block away one night.  We do not recommend this travel lodge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r390851598-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>390851598</t>
+  </si>
+  <si>
+    <t>clean, pleasant, not fully furnished</t>
+  </si>
+  <si>
+    <t>The suite is not really set up as a residence: one would expect dishes, silverware, a few cooking implements. Two-level room needs a ceiling fan or some way of evenilng out the temperature level of the two levels: upper level is much warmer than the lower. Service was good. Layout essentially attractive, room was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r387150436-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>387150436</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Not Impressed - 1 Night Stay</t>
+  </si>
+  <si>
+    <t>We arrived a little after 4pm to find that our room was not ready. Housekeeping left the door ajar and some supplies inside. Spoke with front desk and was assured she had personally walked through the room and that it was clean, but they must've forgotten to grab the items. Housekeeping came back to room with vacuum and continued to clean while we awkwardly waited outside the room. It took about 20-30 minutes after checking in before we were able to get in the room.
+Since the room had been hastily cleaned we took a look around. There was a sunflower seed and food crumbs under a mattress pad and the upstairs bathroom floor was covered in hair. I tried to wipe it up myself since we had already been delayed getting into the room and we had somewhere to be.
+After trying unsuccessfully to connect to the wifi I contacted the front desk who said they would reset the router. Only one of us was finally able to connect to it.
+I requested some extra towels, sheets and a blanket since my nephew was going to sleep on the couch. Most of the items were brought up quickly, but I was told that they didn't have any blankets to spare. 
+The air conditioning worked well for downstairs, but the upstairs loft was uncomfortable. I had to turn the A/C down to 60 degrees and aim the vents directly up...We arrived a little after 4pm to find that our room was not ready. Housekeeping left the door ajar and some supplies inside. Spoke with front desk and was assured she had personally walked through the room and that it was clean, but they must've forgotten to grab the items. Housekeeping came back to room with vacuum and continued to clean while we awkwardly waited outside the room. It took about 20-30 minutes after checking in before we were able to get in the room.Since the room had been hastily cleaned we took a look around. There was a sunflower seed and food crumbs under a mattress pad and the upstairs bathroom floor was covered in hair. I tried to wipe it up myself since we had already been delayed getting into the room and we had somewhere to be.After trying unsuccessfully to connect to the wifi I contacted the front desk who said they would reset the router. Only one of us was finally able to connect to it.I requested some extra towels, sheets and a blanket since my nephew was going to sleep on the couch. Most of the items were brought up quickly, but I was told that they didn't have any blankets to spare. The air conditioning worked well for downstairs, but the upstairs loft was uncomfortable. I had to turn the A/C down to 60 degrees and aim the vents directly up to make any difference up there. It finally cooled down at about 10p, but my family sleeping downstairs were freezing.The room was a suite with a kitchen. There was a stovetop, microwave and mini fridge. Any time I have stayed in a room like this there were dishes, utensils and cookware. This kitchen was bare.Breakfast was individually packaged pastries, bread for toast, 2 kinds of cereal, package of instant oatmeal, some apples, orange juice, milk and coffee. It was pretty sparse when we went down around 815a, but by the time we went back up it had been partially restocked.Overall, I was slightly uncomfortable in this room. I didn't want to sit on the couch or the desk chair and I definitely did not go barefoot. I was disappointed in the room based on the price we paid, which was approx $135 after using a Wyndham Rewards coupon code. It wasn't horrible, but I won't be staying again nor recommending this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We arrived a little after 4pm to find that our room was not ready. Housekeeping left the door ajar and some supplies inside. Spoke with front desk and was assured she had personally walked through the room and that it was clean, but they must've forgotten to grab the items. Housekeeping came back to room with vacuum and continued to clean while we awkwardly waited outside the room. It took about 20-30 minutes after checking in before we were able to get in the room.
+Since the room had been hastily cleaned we took a look around. There was a sunflower seed and food crumbs under a mattress pad and the upstairs bathroom floor was covered in hair. I tried to wipe it up myself since we had already been delayed getting into the room and we had somewhere to be.
+After trying unsuccessfully to connect to the wifi I contacted the front desk who said they would reset the router. Only one of us was finally able to connect to it.
+I requested some extra towels, sheets and a blanket since my nephew was going to sleep on the couch. Most of the items were brought up quickly, but I was told that they didn't have any blankets to spare. 
+The air conditioning worked well for downstairs, but the upstairs loft was uncomfortable. I had to turn the A/C down to 60 degrees and aim the vents directly up...We arrived a little after 4pm to find that our room was not ready. Housekeeping left the door ajar and some supplies inside. Spoke with front desk and was assured she had personally walked through the room and that it was clean, but they must've forgotten to grab the items. Housekeeping came back to room with vacuum and continued to clean while we awkwardly waited outside the room. It took about 20-30 minutes after checking in before we were able to get in the room.Since the room had been hastily cleaned we took a look around. There was a sunflower seed and food crumbs under a mattress pad and the upstairs bathroom floor was covered in hair. I tried to wipe it up myself since we had already been delayed getting into the room and we had somewhere to be.After trying unsuccessfully to connect to the wifi I contacted the front desk who said they would reset the router. Only one of us was finally able to connect to it.I requested some extra towels, sheets and a blanket since my nephew was going to sleep on the couch. Most of the items were brought up quickly, but I was told that they didn't have any blankets to spare. The air conditioning worked well for downstairs, but the upstairs loft was uncomfortable. I had to turn the A/C down to 60 degrees and aim the vents directly up to make any difference up there. It finally cooled down at about 10p, but my family sleeping downstairs were freezing.The room was a suite with a kitchen. There was a stovetop, microwave and mini fridge. Any time I have stayed in a room like this there were dishes, utensils and cookware. This kitchen was bare.Breakfast was individually packaged pastries, bread for toast, 2 kinds of cereal, package of instant oatmeal, some apples, orange juice, milk and coffee. It was pretty sparse when we went down around 815a, but by the time we went back up it had been partially restocked.Overall, I was slightly uncomfortable in this room. I didn't want to sit on the couch or the desk chair and I definitely did not go barefoot. I was disappointed in the room based on the price we paid, which was approx $135 after using a Wyndham Rewards coupon code. It wasn't horrible, but I won't be staying again nor recommending this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r386490803-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>386490803</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r384920076-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>384920076</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r373547163-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>373547163</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r372882417-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>372882417</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r368317797-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>368317797</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r363915019-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>363915019</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Dissapointed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were first given a room key to a room that was not ready and then there was a spider in the shower. The pictures online seem wonderful but there is a lot of echo and a depressing feeling to the room  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r363742698-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>363742698</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r358791402-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>358791402</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>love this place</t>
+  </si>
+  <si>
+    <t>I have been coming to this Hotel for years and I have to say its always a pleasant stay. Customer service is the best. The only thing I miss is the breakfast they offered a couple years ago. I hope they bring the waffles back.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r356934584-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>356934584</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Horrible!!!!!!</t>
+  </si>
+  <si>
+    <t>Horrible smelled really bad, dirty, strong mold smell, cup stains on counters and dressers... Burn holes in blankets, BM on wall behind the toilet. They should be renting these out for free. Spoke with front desk and no one was willing to come check room. I watch to much hotel impossible to put up with this type of service.... Simply horrible. Family trip ruined by this horrible unrelenting smell..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r355977775-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>355977775</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>love it</t>
+  </si>
+  <si>
+    <t>I love coming here the staff is always smiling and so helpfull and the front desk is alway helpffull when needed but also they are never rude with eney thing thay give respect and i will love this place till i cant no more</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r354253608-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>354253608</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>STAFF ARE AMAZINGLY HELPFUL</t>
+  </si>
+  <si>
+    <t>I was bothered to read some of the reviews left about this hidden gem. When you book a room you can see the map it clearly shows the freeway so you should know its a chance you take,  however I have stayed at this location several times  I was not able to hear any freeway traffic,the staff will bend over backwards to help you with anything  rooms are very spacious and clean. Parking can be tight at times, but all in all this is a hidden gem with clean rooms comfortable beds and awesome staff</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r349899156-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>349899156</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r348733153-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>348733153</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Superb</t>
+  </si>
+  <si>
+    <t>The staff and management are really niče. The rooms are excellent. Breakfast is included nad most rooms are full kitchens.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r342732111-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>342732111</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r327159630-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>327159630</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Byron was pleasant and very accomodating. The hotel was...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byron was pleasant and very accomodating. The hotel was under renovation but nevertheless the employees never fail to give their best to their guests. Thumbs up to all </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r324990300-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>324990300</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r322133743-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>322133743</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>SPENDID EXPERIENCE! CUSTOMER SERVICE :)</t>
+  </si>
+  <si>
+    <t>As I arrived to the hotel I saw it was build on a friendly neighborhood. Great customer service. Very friendly. Room was clean. I would recommend it to friends and family. Only small detail was the parking lot.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r313291447-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>313291447</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Great Experience!!!!</t>
+  </si>
+  <si>
+    <t>Thisproperty is very clean and well maintained. Great decor especially with the newly remodeled rooms. The staff is super friendly and very professional. They really go the extra mile to please their guest.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r313048462-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>313048462</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could use a Revamp </t>
+  </si>
+  <si>
+    <t>This is an old hotel near the freeway that has seen better days. Paint is peeling on walls, the drawers on the armoire are askew, some light fixtures don't work and for some reason the remote for the tv didn't work. Basic breakfast  is served from 7:30 - 9:30 am and consists of oatmeal, cereal, Danish pastries, bread and jam, milk, on, and coffee. One day they had some apples and one day they had run out of cereal sms oatmeal by 8:30. Parking is limited. WiFi was so- so. You had to log back in whenever you didn't use for a period of time. The only one thing I liked was I could walk to a Kings Hawaiian bakery.Room top: ask for a room not facing the freeway as it can be bothersome.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an old hotel near the freeway that has seen better days. Paint is peeling on walls, the drawers on the armoire are askew, some light fixtures don't work and for some reason the remote for the tv didn't work. Basic breakfast  is served from 7:30 - 9:30 am and consists of oatmeal, cereal, Danish pastries, bread and jam, milk, on, and coffee. One day they had some apples and one day they had run out of cereal sms oatmeal by 8:30. Parking is limited. WiFi was so- so. You had to log back in whenever you didn't use for a period of time. The only one thing I liked was I could walk to a Kings Hawaiian bakery.Room top: ask for a room not facing the freeway as it can be bothersome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r311833047-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>311833047</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r303525138-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>303525138</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Travelodge Experience</t>
+  </si>
+  <si>
+    <t>The location was decent but some of the noise from the freeway was loud..and some unsavory characters were hanging around late at nightMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2015</t>
+  </si>
+  <si>
+    <t>The location was decent but some of the noise from the freeway was loud..and some unsavory characters were hanging around late at nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r302305864-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>302305864</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r299164975-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>299164975</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Essentially general initial impression was not inviting or...</t>
+  </si>
+  <si>
+    <t>Essentially general initial impression was not inviting or safe . Room smelled stale. Why is the entrance in the parking lot dismal and scary.On the upside  Byron was very accommodating and pleasant in the morning.(He was from Guatemala and possibly worked the night shift. ) There was another young man who worked nights and was kind of enough to make coffee early for me.The first receptionist was not helpful or engaging.MoreShow less</t>
+  </si>
+  <si>
+    <t>Essentially general initial impression was not inviting or safe . Room smelled stale. Why is the entrance in the parking lot dismal and scary.On the upside  Byron was very accommodating and pleasant in the morning.(He was from Guatemala and possibly worked the night shift. ) There was another young man who worked nights and was kind of enough to make coffee early for me.The first receptionist was not helpful or engaging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r293843076-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>293843076</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Ongoing construction, but updated room and friendly front desk</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights recently and overall it was acceptable. The front desk was very nice and helpful and the renovations that have been done do look very nice. I had a nice and updated room facing the 405 off-ramp but without the air on it would have been noisy. The biggest fallback was the super crowded parking garage. Few pickup trucks with Texas plates with men drinking and playing music (not sure if they were the same ones doing the construction work by day) taking up a majority of the spots. No one was rude or anything, but I did have to park in the street one of the nights. I'd stay here again if management monitored the parking garage a little better.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights recently and overall it was acceptable. The front desk was very nice and helpful and the renovations that have been done do look very nice. I had a nice and updated room facing the 405 off-ramp but without the air on it would have been noisy. The biggest fallback was the super crowded parking garage. Few pickup trucks with Texas plates with men drinking and playing music (not sure if they were the same ones doing the construction work by day) taking up a majority of the spots. No one was rude or anything, but I did have to park in the street one of the nights. I'd stay here again if management monitored the parking garage a little better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r293487281-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>293487281</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Karla, the front desk really is very pleasant to talk to...</t>
+  </si>
+  <si>
+    <t>Karla, the front desk really is very pleasant to talk to. She's so nice and very accomodating. Whenever my family and I are in town we are always looking forward to staying here. Very nice staff. Though, they are under renovation, the staff made sure we are very comfortable. We hope that you will bring the waffles back for breakfast  Thank you for the excellent service you provide for me and my family. Kudos to all the employees of this Wyndham Hotel branch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karla, the front desk really is very pleasant to talk to. She's so nice and very accomodating. Whenever my family and I are in town we are always looking forward to staying here. Very nice staff. Though, they are under renovation, the staff made sure we are very comfortable. We hope that you will bring the waffles back for breakfast  Thank you for the excellent service you provide for me and my family. Kudos to all the employees of this Wyndham Hotel branch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r281501006-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>281501006</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r267616291-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>267616291</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r267440228-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>267440228</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r267413852-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>267413852</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r257365675-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>257365675</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Mediocre to bad experience..</t>
+  </si>
+  <si>
+    <t>There was quite a bit of noise. Neither me nor my wife for much sleep. From the pipes making a ton of noise every time the neighbors used water to the neighbors themselves fighting, sleep was nonexistent. Oh, and the mattresses were mega-stiff. I guess that matches the rest of the furniture. The couch I sat on was really uncomfortable and looked like it was scored from a street corner as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>There was quite a bit of noise. Neither me nor my wife for much sleep. From the pipes making a ton of noise every time the neighbors used water to the neighbors themselves fighting, sleep was nonexistent. Oh, and the mattresses were mega-stiff. I guess that matches the rest of the furniture. The couch I sat on was really uncomfortable and looked like it was scored from a street corner as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r256816473-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>256816473</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r253904200-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>253904200</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r252330982-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>252330982</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>At first I was hesitant in staying at this hotel but...</t>
+  </si>
+  <si>
+    <t>At first I was hesitant in staying at this hotel but overall I am very happy with my stay. Staff was very friendly and helpful and very clean atmosphere, very welcoming. Can't complain I will definitely recommend to my friends and family. And I'll definitely be back for future stays. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>At first I was hesitant in staying at this hotel but overall I am very happy with my stay. Staff was very friendly and helpful and very clean atmosphere, very welcoming. Can't complain I will definitely recommend to my friends and family. And I'll definitely be back for future stays. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r250942513-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>250942513</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r249225667-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>249225667</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Short business trip</t>
+  </si>
+  <si>
+    <t>Hotel is under many renovations, however the construction did not bother me during my stay. The breakfast was simple and quick. The waffles were really delicious, and everything was fully stocked. The location is centrally located to the city and beach. The staff was friendly and answered all my questions. I will definitely choose the travelodge in Gardena for further business trips. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is under many renovations, however the construction did not bother me during my stay. The breakfast was simple and quick. The waffles were really delicious, and everything was fully stocked. The location is centrally located to the city and beach. The staff was friendly and answered all my questions. I will definitely choose the travelodge in Gardena for further business trips. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r247015552-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>247015552</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>The good the bad and the ugly</t>
+  </si>
+  <si>
+    <t>The good... comfortable bed, working air conditioner,  nice wooden window shutters windows open, double windows made a big difference since we were by the freeway we didn't hear any freeway noise. Staff was nice and tried to be helpful.
+The bad... the room looks nothing like the pictures nothing!!! The bed was the only one that kind of matched the picture.  But the room is so awkward im thinking that it used to be an apartment complex since there is a giant closet like one youd see in an apartment. The bathroom was terrible. It was like they painted over moldy grout the shower head was unusually low like itll spray you in the face low. The wall paper was half way done lifing and it was almost like they gave up on the fixing of the room. The side of the room that had the bed was ok and after the bed area the rest was terrible. Parking was available but awkward especially when you have a bigger vehicle.  
+The ugly... the hallways are so weird like a maze and no base boards "wet paint" signs everywhere but umm no wet paint. It was a very awkward hallway where you get to a door way and then there are 2 doors which are adjoining rooms.  Would I stay there again? No. My first 2 nights I slept well and felt safe, our third night not so much! It seems...The good... comfortable bed, working air conditioner,  nice wooden window shutters windows open, double windows made a big difference since we were by the freeway we didn't hear any freeway noise. Staff was nice and tried to be helpful.The bad... the room looks nothing like the pictures nothing!!! The bed was the only one that kind of matched the picture.  But the room is so awkward im thinking that it used to be an apartment complex since there is a giant closet like one youd see in an apartment. The bathroom was terrible. It was like they painted over moldy grout the shower head was unusually low like itll spray you in the face low. The wall paper was half way done lifing and it was almost like they gave up on the fixing of the room. The side of the room that had the bed was ok and after the bed area the rest was terrible. Parking was available but awkward especially when you have a bigger vehicle.  The ugly... the hallways are so weird like a maze and no base boards "wet paint" signs everywhere but umm no wet paint. It was a very awkward hallway where you get to a door way and then there are 2 doors which are adjoining rooms.  Would I stay there again? No. My first 2 nights I slept well and felt safe, our third night not so much! It seems to be a party hotel on our last night Saturday at about 945pm we heard alot of commotion in the hall way. It was a group of people in the hallway being obnoxious I called the front desk they said they were already being kicked out. Unfortunately there was another issue the same night our neighbors apparently had ALOT to talk about I had to call front desk around midnight and they called and asked them to keep it down which they did for a while then they tried to open the adjoining door which was very scary. Then around 4am there was coughing of all of them and music came on. Needless to say I got no sleep. If I had children I would have left. I expressed my concern the next morning to the front desk staff and she wad very apologetic and looked into my account and stated that unfortunately she could not give me a discount since it was pre payed throught hotels.com and said next time they could give me some sort of discount.  Needless to say there wont be a next time.  I was hoping the manager would contact me as I made a comment to her about sharing my experience with the manager. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>The good... comfortable bed, working air conditioner,  nice wooden window shutters windows open, double windows made a big difference since we were by the freeway we didn't hear any freeway noise. Staff was nice and tried to be helpful.
+The bad... the room looks nothing like the pictures nothing!!! The bed was the only one that kind of matched the picture.  But the room is so awkward im thinking that it used to be an apartment complex since there is a giant closet like one youd see in an apartment. The bathroom was terrible. It was like they painted over moldy grout the shower head was unusually low like itll spray you in the face low. The wall paper was half way done lifing and it was almost like they gave up on the fixing of the room. The side of the room that had the bed was ok and after the bed area the rest was terrible. Parking was available but awkward especially when you have a bigger vehicle.  
+The ugly... the hallways are so weird like a maze and no base boards "wet paint" signs everywhere but umm no wet paint. It was a very awkward hallway where you get to a door way and then there are 2 doors which are adjoining rooms.  Would I stay there again? No. My first 2 nights I slept well and felt safe, our third night not so much! It seems...The good... comfortable bed, working air conditioner,  nice wooden window shutters windows open, double windows made a big difference since we were by the freeway we didn't hear any freeway noise. Staff was nice and tried to be helpful.The bad... the room looks nothing like the pictures nothing!!! The bed was the only one that kind of matched the picture.  But the room is so awkward im thinking that it used to be an apartment complex since there is a giant closet like one youd see in an apartment. The bathroom was terrible. It was like they painted over moldy grout the shower head was unusually low like itll spray you in the face low. The wall paper was half way done lifing and it was almost like they gave up on the fixing of the room. The side of the room that had the bed was ok and after the bed area the rest was terrible. Parking was available but awkward especially when you have a bigger vehicle.  The ugly... the hallways are so weird like a maze and no base boards "wet paint" signs everywhere but umm no wet paint. It was a very awkward hallway where you get to a door way and then there are 2 doors which are adjoining rooms.  Would I stay there again? No. My first 2 nights I slept well and felt safe, our third night not so much! It seems to be a party hotel on our last night Saturday at about 945pm we heard alot of commotion in the hall way. It was a group of people in the hallway being obnoxious I called the front desk they said they were already being kicked out. Unfortunately there was another issue the same night our neighbors apparently had ALOT to talk about I had to call front desk around midnight and they called and asked them to keep it down which they did for a while then they tried to open the adjoining door which was very scary. Then around 4am there was coughing of all of them and music came on. Needless to say I got no sleep. If I had children I would have left. I expressed my concern the next morning to the front desk staff and she wad very apologetic and looked into my account and stated that unfortunately she could not give me a discount since it was pre payed throught hotels.com and said next time they could give me some sort of discount.  Needless to say there wont be a next time.  I was hoping the manager would contact me as I made a comment to her about sharing my experience with the manager. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r246905675-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>246905675</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>excellent customer service</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay the service is excellent rooms are comfortable, enjoy breakfast specially the waffles. Manager and staff check on us a couple of times make sure we had everything. Good luck on your renovation it starting to look awesome. MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay the service is excellent rooms are comfortable, enjoy breakfast specially the waffles. Manager and staff check on us a couple of times make sure we had everything. Good luck on your renovation it starting to look awesome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r246736791-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>246736791</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>great service. ..</t>
+  </si>
+  <si>
+    <t>I stayed overnight due to a power outage at my home. They have the best suites in town. Very clean and spacious.  I noticed there were renovations taking place at the time of my stay, and i am totally looking forward to coming back. Only problem i had was my remote wouldn't control all features on my t.v. Other than that, i was pleased. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed overnight due to a power outage at my home. They have the best suites in town. Very clean and spacious.  I noticed there were renovations taking place at the time of my stay, and i am totally looking forward to coming back. Only problem i had was my remote wouldn't control all features on my t.v. Other than that, i was pleased. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r240146141-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>240146141</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Premier L, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r239670454-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>239670454</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>I love this place!</t>
+  </si>
+  <si>
+    <t>I stay here from time to time just to escape and get away. I enjoy the peace and quiet, bedding is very comfy and relaxing. The only minor inconvenience is the remote never works. I have to get out of the comfort of the bed to turn the volume up/down and tv off/on and movie channels should be offered....at least HBOMoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here from time to time just to escape and get away. I enjoy the peace and quiet, bedding is very comfy and relaxing. The only minor inconvenience is the remote never works. I have to get out of the comfort of the bed to turn the volume up/down and tv off/on and movie channels should be offered....at least HBOMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r237194970-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>237194970</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r230541860-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>230541860</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r228185196-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>228185196</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r215535479-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>215535479</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Tri-colored bath grout isn't a design element</t>
+  </si>
+  <si>
+    <t>I agree with the negative reviews. Hotel appears much nicer in photos! The paint job makes it appear cheery, given the neighborhood.
+Notes to management: The title of my review I think was the nicest problem. Not a professional grout job in the bath when three different grout colors are used.
+Please use bleach so stains don't appear on bath towels. Rotting frame around bottom of bath door. Towel quality ok.
+Don't advertise wifi if it's only available in the lobby. Room 203 doesn't have any.
+If you turn off the refrigerator between guests, leave the door open so it doesn't smell like FEET!!!! We used our cooler, as I didn't want the smell to migrate to our drinks. That was the worst part of our stay.
+Bed was comfy enough, &amp; linens were clean enough.
+If you keep a coffee carafe in the lobby, room temperature coffee is not pleasant at 7 a.m. We had to leave before breakfast, but I really wanted a cup. Same guy who checked me in checked us out, &amp; was asleep when I attempted to checkout. Knocking on bullett proof glass &amp; saying "hello" didn't wake him, so as soon as I knocked on the "employees only" door, he did wake. Pleasant staff.
+Hotel layout is very strange - it was like a maze getting to our room. Lots of skylights, which did illuminate the dark interiors &amp; room. There were recesses in...I agree with the negative reviews. Hotel appears much nicer in photos! The paint job makes it appear cheery, given the neighborhood.Notes to management: The title of my review I think was the nicest problem. Not a professional grout job in the bath when three different grout colors are used.Please use bleach so stains don't appear on bath towels. Rotting frame around bottom of bath door. Towel quality ok.Don't advertise wifi if it's only available in the lobby. Room 203 doesn't have any.If you turn off the refrigerator between guests, leave the door open so it doesn't smell like FEET!!!! We used our cooler, as I didn't want the smell to migrate to our drinks. That was the worst part of our stay.Bed was comfy enough, &amp; linens were clean enough.If you keep a coffee carafe in the lobby, room temperature coffee is not pleasant at 7 a.m. We had to leave before breakfast, but I really wanted a cup. Same guy who checked me in checked us out, &amp; was asleep when I attempted to checkout. Knocking on bullett proof glass &amp; saying "hello" didn't wake him, so as soon as I knocked on the "employees only" door, he did wake. Pleasant staff.Hotel layout is very strange - it was like a maze getting to our room. Lots of skylights, which did illuminate the dark interiors &amp; room. There were recesses in the hallways for rooms. Size of room was quite large, as if it were once a residential hotel property with a closet that must have been at least 12' long.Call me paranoid, but I don't like underground parking in earthquake prone areas! I know that can't be helped, it's my issue!Despite the on/off ramp for the 405 below the window, it was remarkably quiet. Hotel was conveniently located, &amp; 85C bakery cafe is dangerously close - don't know why there was a line out the door &amp; a car line around the block for Krispy Kreme, also very close, but I HIGHLY recommend the 85C bakery across from it on Artesia. You'll find baked goods there that are wonderful and unique!The price for a room in LA was reasonable, $71 king, and just about all of the issues I mentioned can be fixed, but I would NOT return.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I agree with the negative reviews. Hotel appears much nicer in photos! The paint job makes it appear cheery, given the neighborhood.
+Notes to management: The title of my review I think was the nicest problem. Not a professional grout job in the bath when three different grout colors are used.
+Please use bleach so stains don't appear on bath towels. Rotting frame around bottom of bath door. Towel quality ok.
+Don't advertise wifi if it's only available in the lobby. Room 203 doesn't have any.
+If you turn off the refrigerator between guests, leave the door open so it doesn't smell like FEET!!!! We used our cooler, as I didn't want the smell to migrate to our drinks. That was the worst part of our stay.
+Bed was comfy enough, &amp; linens were clean enough.
+If you keep a coffee carafe in the lobby, room temperature coffee is not pleasant at 7 a.m. We had to leave before breakfast, but I really wanted a cup. Same guy who checked me in checked us out, &amp; was asleep when I attempted to checkout. Knocking on bullett proof glass &amp; saying "hello" didn't wake him, so as soon as I knocked on the "employees only" door, he did wake. Pleasant staff.
+Hotel layout is very strange - it was like a maze getting to our room. Lots of skylights, which did illuminate the dark interiors &amp; room. There were recesses in...I agree with the negative reviews. Hotel appears much nicer in photos! The paint job makes it appear cheery, given the neighborhood.Notes to management: The title of my review I think was the nicest problem. Not a professional grout job in the bath when three different grout colors are used.Please use bleach so stains don't appear on bath towels. Rotting frame around bottom of bath door. Towel quality ok.Don't advertise wifi if it's only available in the lobby. Room 203 doesn't have any.If you turn off the refrigerator between guests, leave the door open so it doesn't smell like FEET!!!! We used our cooler, as I didn't want the smell to migrate to our drinks. That was the worst part of our stay.Bed was comfy enough, &amp; linens were clean enough.If you keep a coffee carafe in the lobby, room temperature coffee is not pleasant at 7 a.m. We had to leave before breakfast, but I really wanted a cup. Same guy who checked me in checked us out, &amp; was asleep when I attempted to checkout. Knocking on bullett proof glass &amp; saying "hello" didn't wake him, so as soon as I knocked on the "employees only" door, he did wake. Pleasant staff.Hotel layout is very strange - it was like a maze getting to our room. Lots of skylights, which did illuminate the dark interiors &amp; room. There were recesses in the hallways for rooms. Size of room was quite large, as if it were once a residential hotel property with a closet that must have been at least 12' long.Call me paranoid, but I don't like underground parking in earthquake prone areas! I know that can't be helped, it's my issue!Despite the on/off ramp for the 405 below the window, it was remarkably quiet. Hotel was conveniently located, &amp; 85C bakery cafe is dangerously close - don't know why there was a line out the door &amp; a car line around the block for Krispy Kreme, also very close, but I HIGHLY recommend the 85C bakery across from it on Artesia. You'll find baked goods there that are wonderful and unique!The price for a room in LA was reasonable, $71 king, and just about all of the issues I mentioned can be fixed, but I would NOT return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r211134752-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>211134752</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Travelodge Gardena</t>
+  </si>
+  <si>
+    <t>TV did not work.  Wireless internet signal was too week to connect to in the room I was in.  Staff was friendly.  No hotel or area literature in room.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r210498815-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>210498815</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r210079058-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>210079058</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r205402672-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>205402672</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Plan to stay again.</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay here.  This is not my first time to stay at this facility on business and it won't be my last.  The rooms are nice and the rate is competitive.  Breakfast is pretty good but not quite as many items offered as in the past.  Guess they had to cut back somewhere, but still a good breakfast.  Friendly people at the desk especially Byron and Carla ( others are too but  i don't recall their names).  A little noisy during spring break but that is to be expected with the youngsters. Not fancy but for the price not a bad deal.  May be a bad area, I don't know, I didn't get that impression,  but with the Walmart and shopping close by, it is convenient for me.  Easy on and off the 405!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay here.  This is not my first time to stay at this facility on business and it won't be my last.  The rooms are nice and the rate is competitive.  Breakfast is pretty good but not quite as many items offered as in the past.  Guess they had to cut back somewhere, but still a good breakfast.  Friendly people at the desk especially Byron and Carla ( others are too but  i don't recall their names).  A little noisy during spring break but that is to be expected with the youngsters. Not fancy but for the price not a bad deal.  May be a bad area, I don't know, I didn't get that impression,  but with the Walmart and shopping close by, it is convenient for me.  Easy on and off the 405!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r202779322-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>202779322</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r200763354-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>200763354</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r195969102-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>195969102</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r195625329-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>195625329</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>This hotel was recommended by a friend. The hotel price is great and rooms are very clean. Front desk were very friendly and helpful. My wife and I stayed in a Junior Suite with a kitchen, the only thing my wife would have liked is if they offered pots and pans. Other than that we had a pleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r195624973-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>195624973</t>
+  </si>
+  <si>
+    <t>Good service and nice rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have to say this was a good choice of hotel had thoughts at the beginning but it ended up being a good choice of my wife flew here from Oregon with my two kids so I needed a good room and I wasn't disappointed at all have to say the customer service and rooms were awesome I would recommended to anyone </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r188472409-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>188472409</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r185379877-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>185379877</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r185363971-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>185363971</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Stayed there for a week very quiet house keeping was amazing cleand my room everyday ...easy freeway access room had lots of space no one too bother you with noice complimentary breakfast is a plus ....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r182185593-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>182185593</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>I didnt think much about this hotel cuz of the fact that its by the freeway and next to the train tracks but as soon as i went in, the staff greeted me like if ive known them for years and made me feel really comfortable. They made my stay very joyful. Cable was awesome, bed sheets and comforters felt and smelled clean (which is very important), complimentary breakfast (which was pretty delicious) and it was very close to several stores. Over all, it was a great stay. We will definitly be back if we're looking around the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Byron G, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>I didnt think much about this hotel cuz of the fact that its by the freeway and next to the train tracks but as soon as i went in, the staff greeted me like if ive known them for years and made me feel really comfortable. They made my stay very joyful. Cable was awesome, bed sheets and comforters felt and smelled clean (which is very important), complimentary breakfast (which was pretty delicious) and it was very close to several stores. Over all, it was a great stay. We will definitly be back if we're looking around the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r182048956-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>182048956</t>
+  </si>
+  <si>
+    <t>Spacious Rooms and Friendly Atmosphere Make A Pleasant Stay</t>
+  </si>
+  <si>
+    <t>The Travelodge Inn and Suites is my favorite in the Gardena / Torrance area.  It's great for a business stay because it feels like home.  The neighborhood is quiet but close to work and to several shopping and business areas, plus the rooms are spacious and the price is right.  (The junior suites are quite roomy but the 2-level lofts are a real treat that is most unusual for the average hotel...  It's like being in a townhouse, a home away from home).   My favorite feature is the apartment sized kitchen, which for me, is a giant plus.  If you want, you can prepare a "home cooked meal but if not, there are several eating places close by, and the hotel breakfast is delicious.  Most important of all, the staff is really nice and very helpful.  My only real complaint is that the laundry room has only one washer and dryer which can be a hassle.  Overall, compared to other extended stay hotels, this one rates tops for me because it is unique and has a friendliness that most hotels seem to lack.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Travelodge Inn and Suites is my favorite in the Gardena / Torrance area.  It's great for a business stay because it feels like home.  The neighborhood is quiet but close to work and to several shopping and business areas, plus the rooms are spacious and the price is right.  (The junior suites are quite roomy but the 2-level lofts are a real treat that is most unusual for the average hotel...  It's like being in a townhouse, a home away from home).   My favorite feature is the apartment sized kitchen, which for me, is a giant plus.  If you want, you can prepare a "home cooked meal but if not, there are several eating places close by, and the hotel breakfast is delicious.  Most important of all, the staff is really nice and very helpful.  My only real complaint is that the laundry room has only one washer and dryer which can be a hassle.  Overall, compared to other extended stay hotels, this one rates tops for me because it is unique and has a friendliness that most hotels seem to lack.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r182026885-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>182026885</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>i stayed there 2 weks ago. I can honestly say the management really know how to run this place.The service we got was really good from the front desk agent and were really friendly. definately planning on coming back and will tell my friends to stay there. Ivan AguilarMoreShow less</t>
+  </si>
+  <si>
+    <t>i stayed there 2 weks ago. I can honestly say the management really know how to run this place.The service we got was really good from the front desk agent and were really friendly. definately planning on coming back and will tell my friends to stay there. Ivan AguilarMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r181530029-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>181530029</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Byron G, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r181501342-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>181501342</t>
+  </si>
+  <si>
+    <t>really good coustumer service</t>
+  </si>
+  <si>
+    <t>i really like the location the breaskfast is really good and clean,i really like the service the rooms are nice and spacious the only thing i want to mention is carpet and hallways look durty, old,smell bad,but beside that everything was good,i enjoy my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>i really like the location the breaskfast is really good and clean,i really like the service the rooms are nice and spacious the only thing i want to mention is carpet and hallways look durty, old,smell bad,but beside that everything was good,i enjoy my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r181397292-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>181397292</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>It was more than meets the eye!</t>
+  </si>
+  <si>
+    <t>I live in the city of Fullerton and I needed a place to stay over the weekend for a family wedding. I was considering others but I decided to stay here due to the reasonable pricing for a stay of 3 days. I stayed in a 2 bed suite because it was another family member and myself. It had a plasma TV and a kitchen which made it great for me because I'm not a fan of eating out. Unfortunately, it did not have cookware ready so I had to improvise. The neat thing about it was that the two beds were separate. One bed was downstairs and the other bed was upstairs, which gave me a private setting with my own bathroom as well. Great atmosphere! Breakfast ready to go for you in the morning downstairs in the lobby but only for a certain time span so you have to be attentive of what times you want to grab breakfast. Friendly customer service as well. Just few things to consider, the toiletries were not fancy so don’t expect name brands. Also, the walls aren’t sound proof so you can hear when people are walking through the halls and what not. But other than that, great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I live in the city of Fullerton and I needed a place to stay over the weekend for a family wedding. I was considering others but I decided to stay here due to the reasonable pricing for a stay of 3 days. I stayed in a 2 bed suite because it was another family member and myself. It had a plasma TV and a kitchen which made it great for me because I'm not a fan of eating out. Unfortunately, it did not have cookware ready so I had to improvise. The neat thing about it was that the two beds were separate. One bed was downstairs and the other bed was upstairs, which gave me a private setting with my own bathroom as well. Great atmosphere! Breakfast ready to go for you in the morning downstairs in the lobby but only for a certain time span so you have to be attentive of what times you want to grab breakfast. Friendly customer service as well. Just few things to consider, the toiletries were not fancy so don’t expect name brands. Also, the walls aren’t sound proof so you can hear when people are walking through the halls and what not. But other than that, great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r180581868-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>180581868</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t>We'll how can I start.. I came down to the city of Torrance looking for a place to stay. I didn't have no reservation at any hotel. I was looking for a place to stay on my phone and this hotel was the first on it showed. I wasn't really sure about this place at first but after all in think it was one of the best stays I had at a hotel for a long time. I stayed in one of their Jr. Suites. Room was clean came with a "fire place" yes a fire place.. it was a first the also were accommodated with Plasma TVs. The staff was Friendly and very Professional. But on the other hand I dislike the parking structure. It was too small. They didn't have a business center also. but other wise everything was perfect. I will definitely come here again. Thank you Travelodge. MoreShow less</t>
+  </si>
+  <si>
+    <t>Byron G, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded October 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2013</t>
+  </si>
+  <si>
+    <t>We'll how can I start.. I came down to the city of Torrance looking for a place to stay. I didn't have no reservation at any hotel. I was looking for a place to stay on my phone and this hotel was the first on it showed. I wasn't really sure about this place at first but after all in think it was one of the best stays I had at a hotel for a long time. I stayed in one of their Jr. Suites. Room was clean came with a "fire place" yes a fire place.. it was a first the also were accommodated with Plasma TVs. The staff was Friendly and very Professional. But on the other hand I dislike the parking structure. It was too small. They didn't have a business center also. but other wise everything was perfect. I will definitely come here again. Thank you Travelodge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r180520935-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>180520935</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I had A great stay in this very friendly Hotel. The front desk personnel was very helpful and they had the best rate. The room was very clean, bed was very comfortable. They also accommodating with extra pillows. They also had great Breakfast in the Morning. The only recommendation I have is cleaning the carpets a little better. I will definitely stay in the Hotel again..MoreShow less</t>
+  </si>
+  <si>
+    <t>I had A great stay in this very friendly Hotel. The front desk personnel was very helpful and they had the best rate. The room was very clean, bed was very comfortable. They also accommodating with extra pillows. They also had great Breakfast in the Morning. The only recommendation I have is cleaning the carpets a little better. I will definitely stay in the Hotel again..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r180421526-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>180421526</t>
+  </si>
+  <si>
+    <t>A nice place to get some much needed R&amp;R</t>
+  </si>
+  <si>
+    <t>After a long and stressful day of being stuck in the waiting room of a hospital, I did not have the strength to drive home. I saw this place as I was driving on the freeway and decided to get a room as I needed to return to the hospital in the morning. My check-in was very speedy and the clerk was kind enough to give me a list of food places that offer delivery to this place. The room had a nice clean smell to it and was really comfotable. I'm not a fan of sleeping on strange beds but I was able to get the much needed R&amp;R that I needed... I wasn't able to enjoy the full breakfast bar, but the young lady at the front desk offered me a pastry, and had made a fresh pot of coffee. I was so great full and happy with the service I got. The place could use some renovations but other than that I enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a long and stressful day of being stuck in the waiting room of a hospital, I did not have the strength to drive home. I saw this place as I was driving on the freeway and decided to get a room as I needed to return to the hospital in the morning. My check-in was very speedy and the clerk was kind enough to give me a list of food places that offer delivery to this place. The room had a nice clean smell to it and was really comfotable. I'm not a fan of sleeping on strange beds but I was able to get the much needed R&amp;R that I needed... I wasn't able to enjoy the full breakfast bar, but the young lady at the front desk offered me a pastry, and had made a fresh pot of coffee. I was so great full and happy with the service I got. The place could use some renovations but other than that I enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r178862402-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>178862402</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Quiet &amp; Comfy Room</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel, my room was quite comfortable. After a long day of stress full meetings; I was able to get the rest and relaxation that I so needed. When I First arrived I was greeted very nicely by the front desk clerk. He was very efficient and was able to accommodate me even though I had arrived early to check inn. As I walked into my room I was a bit skeptical because it faced the freeway. But when I checked the windows they were those double windows and you couldn't hear a sound. The size of the room was really great for a single I had enough room to put my work on the desk and other places. So I hadn't the need to use the bed as my desk, as I have in other hotels. The room as well as bathroom were very clean and spacey, which was a definite plus for me. Later I needed a nice place to have a business dinner and the front desk clerk recommended me to this wonderful place called Paradise, located a block away from the hotel. In the morning I enjoyed their "FREE" breakfast variety which was a delight and the attendant was very kind and her service was a "10". My check out was prompt and easy. All in all I can say that I will be making this hotel my number one choice...I enjoyed my stay at this hotel, my room was quite comfortable. After a long day of stress full meetings; I was able to get the rest and relaxation that I so needed. When I First arrived I was greeted very nicely by the front desk clerk. He was very efficient and was able to accommodate me even though I had arrived early to check inn. As I walked into my room I was a bit skeptical because it faced the freeway. But when I checked the windows they were those double windows and you couldn't hear a sound. The size of the room was really great for a single I had enough room to put my work on the desk and other places. So I hadn't the need to use the bed as my desk, as I have in other hotels. The room as well as bathroom were very clean and spacey, which was a definite plus for me. Later I needed a nice place to have a business dinner and the front desk clerk recommended me to this wonderful place called Paradise, located a block away from the hotel. In the morning I enjoyed their "FREE" breakfast variety which was a delight and the attendant was very kind and her service was a "10". My check out was prompt and easy. All in all I can say that I will be making this hotel my number one choice as I will be handling business in the area quite often, and I will recommend it to my colleagues.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel, my room was quite comfortable. After a long day of stress full meetings; I was able to get the rest and relaxation that I so needed. When I First arrived I was greeted very nicely by the front desk clerk. He was very efficient and was able to accommodate me even though I had arrived early to check inn. As I walked into my room I was a bit skeptical because it faced the freeway. But when I checked the windows they were those double windows and you couldn't hear a sound. The size of the room was really great for a single I had enough room to put my work on the desk and other places. So I hadn't the need to use the bed as my desk, as I have in other hotels. The room as well as bathroom were very clean and spacey, which was a definite plus for me. Later I needed a nice place to have a business dinner and the front desk clerk recommended me to this wonderful place called Paradise, located a block away from the hotel. In the morning I enjoyed their "FREE" breakfast variety which was a delight and the attendant was very kind and her service was a "10". My check out was prompt and easy. All in all I can say that I will be making this hotel my number one choice...I enjoyed my stay at this hotel, my room was quite comfortable. After a long day of stress full meetings; I was able to get the rest and relaxation that I so needed. When I First arrived I was greeted very nicely by the front desk clerk. He was very efficient and was able to accommodate me even though I had arrived early to check inn. As I walked into my room I was a bit skeptical because it faced the freeway. But when I checked the windows they were those double windows and you couldn't hear a sound. The size of the room was really great for a single I had enough room to put my work on the desk and other places. So I hadn't the need to use the bed as my desk, as I have in other hotels. The room as well as bathroom were very clean and spacey, which was a definite plus for me. Later I needed a nice place to have a business dinner and the front desk clerk recommended me to this wonderful place called Paradise, located a block away from the hotel. In the morning I enjoyed their "FREE" breakfast variety which was a delight and the attendant was very kind and her service was a "10". My check out was prompt and easy. All in all I can say that I will be making this hotel my number one choice as I will be handling business in the area quite often, and I will recommend it to my colleagues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r176659167-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>176659167</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Byron G, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r175171785-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>175171785</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Byron G, General Manager at Travelodge Inn &amp; Suites by Wyndham Gardena CA, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r167240011-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>167240011</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r165784145-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>165784145</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS HOTEL... WORD!</t>
+  </si>
+  <si>
+    <t>It gave me a sleepless night.... gave me paranoia of someone just busting into my room (since the deadbolt lock did not even work!) I could hear which part of the room the person upstairs is walking to. Smelt like weed the whole time and again it got me paranoid to the point that I am in Portland now and I still think I smell like that room! The hallway was nauseating and I even thought of sleeping in my car! The pictures are deceiving!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>It gave me a sleepless night.... gave me paranoia of someone just busting into my room (since the deadbolt lock did not even work!) I could hear which part of the room the person upstairs is walking to. Smelt like weed the whole time and again it got me paranoid to the point that I am in Portland now and I still think I smell like that room! The hallway was nauseating and I even thought of sleeping in my car! The pictures are deceiving!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r164392490-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>164392490</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r152557370-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>152557370</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>WEED SMOKING 24/7...DIRTY...Loud from street traffic</t>
+  </si>
+  <si>
+    <t>This hotel is NOTHING but a place to smoke WEED 24/7...I told SEVERAL people at the front desk about the VERY STRONG weed smell at all hours of the day &amp; night &amp; it was making me sick..SO BAD I had to put a towel at the floor of my hotel room door. I was told everytime I complained they were going to look into it or they couldnt tell where it was coming from because it was all the way down the hallway. I was told to open my room window to let fresh air in. We had nasty getto girls knocking on our door asking if "we needed anything they could help us with" I told the front desk &amp; they said the have &amp; will again run "those types" of people off. The hotel is nice looking on the outside but the rooms are GETTO...we had a non smoking room (like it did any good) but within 30 seconds of being in the room I could tell weed had just been smoked in there &amp; we found pieces weed laying on the table &amp; bathroom floor.Went to the front desk &amp; was told a couple just checked out of that room &amp; was asured it was cleaned..they had no other room for us to move into &amp; no maid on duty to clean up the weed so I went to Walmart bought my own cleaning supplies &amp;...This hotel is NOTHING but a place to smoke WEED 24/7...I told SEVERAL people at the front desk about the VERY STRONG weed smell at all hours of the day &amp; night &amp; it was making me sick..SO BAD I had to put a towel at the floor of my hotel room door. I was told everytime I complained they were going to look into it or they couldnt tell where it was coming from because it was all the way down the hallway. I was told to open my room window to let fresh air in. We had nasty getto girls knocking on our door asking if "we needed anything they could help us with" I told the front desk &amp; they said the have &amp; will again run "those types" of people off. The hotel is nice looking on the outside but the rooms are GETTO...we had a non smoking room (like it did any good) but within 30 seconds of being in the room I could tell weed had just been smoked in there &amp; we found pieces weed laying on the table &amp; bathroom floor.Went to the front desk &amp; was told a couple just checked out of that room &amp; was asured it was cleaned..they had no other room for us to move into &amp; no maid on duty to clean up the weed so I went to Walmart bought my own cleaning supplies &amp; cleaned the room for a 45 minutes it was NASTY! The sad thing is we had already prepaid for 3 weeks because there was a convention in town &amp; rooms were sold out everywhere we tried looking &amp; found nothing so we were STUCK! Breakfast was late every morning had to ask for it on several occasions the breakfast area is SUPER SMALL &amp; hard to do anything if more than 3 people are getting breakfast at a time....Milk was spoiled a couple times..bread items were DRY &amp; HARD...VERY VERY limited items &amp; they did not restock unless you asked them to because there were a large amount of kids who were wasting the food &amp; eating too much of it I was told. After talking to several of the people in the hotel I found out about half of the people LIVED in the hotel FULL TIME!! Our room was skipped over being cleaned SEVERAL times &amp; when I went to the front desk I was told the maids were gone for the day but our room would be put at the top of the list to be cleaned the  NEXT day (after it had not been cleaned in 3 days). We had no kitchen in our room, no microwave they didnt have a extra one for us to use but our room was the  SAME price as the other rooms with a full kitchen! They DO NOT have a hot tub, swimming pool, exercise room, office space, meeting room...Parking IS THE WORST I HAVE EVER SEEN ANYWHERE! There is not enough parking spots for all the cars so you have to park on the street but on the week days between like 6am-5pm you get towed so you have to park in the neighborhood around the corner. I older lady had a handycap sign &amp; was at the front desk complaing on several days that she couldnt park in the handycap spot because there was other cars with NO sign parked there &amp; she was told they could not do anything about it &amp; for her to call the cops herself if she wanted to park there...they got tired of her complaining about it so they said they were going to put a orange cone there &amp; not let anyone park there! Internet worked most of the time but it was SUPER SLOW! Hot water most of the time....Loud street/car traffic...lots of "family fights"...If you have children you would be better off staying in your car or driving around to find a better family hotel as to being exposed to adult content at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This hotel is NOTHING but a place to smoke WEED 24/7...I told SEVERAL people at the front desk about the VERY STRONG weed smell at all hours of the day &amp; night &amp; it was making me sick..SO BAD I had to put a towel at the floor of my hotel room door. I was told everytime I complained they were going to look into it or they couldnt tell where it was coming from because it was all the way down the hallway. I was told to open my room window to let fresh air in. We had nasty getto girls knocking on our door asking if "we needed anything they could help us with" I told the front desk &amp; they said the have &amp; will again run "those types" of people off. The hotel is nice looking on the outside but the rooms are GETTO...we had a non smoking room (like it did any good) but within 30 seconds of being in the room I could tell weed had just been smoked in there &amp; we found pieces weed laying on the table &amp; bathroom floor.Went to the front desk &amp; was told a couple just checked out of that room &amp; was asured it was cleaned..they had no other room for us to move into &amp; no maid on duty to clean up the weed so I went to Walmart bought my own cleaning supplies &amp;...This hotel is NOTHING but a place to smoke WEED 24/7...I told SEVERAL people at the front desk about the VERY STRONG weed smell at all hours of the day &amp; night &amp; it was making me sick..SO BAD I had to put a towel at the floor of my hotel room door. I was told everytime I complained they were going to look into it or they couldnt tell where it was coming from because it was all the way down the hallway. I was told to open my room window to let fresh air in. We had nasty getto girls knocking on our door asking if "we needed anything they could help us with" I told the front desk &amp; they said the have &amp; will again run "those types" of people off. The hotel is nice looking on the outside but the rooms are GETTO...we had a non smoking room (like it did any good) but within 30 seconds of being in the room I could tell weed had just been smoked in there &amp; we found pieces weed laying on the table &amp; bathroom floor.Went to the front desk &amp; was told a couple just checked out of that room &amp; was asured it was cleaned..they had no other room for us to move into &amp; no maid on duty to clean up the weed so I went to Walmart bought my own cleaning supplies &amp; cleaned the room for a 45 minutes it was NASTY! The sad thing is we had already prepaid for 3 weeks because there was a convention in town &amp; rooms were sold out everywhere we tried looking &amp; found nothing so we were STUCK! Breakfast was late every morning had to ask for it on several occasions the breakfast area is SUPER SMALL &amp; hard to do anything if more than 3 people are getting breakfast at a time....Milk was spoiled a couple times..bread items were DRY &amp; HARD...VERY VERY limited items &amp; they did not restock unless you asked them to because there were a large amount of kids who were wasting the food &amp; eating too much of it I was told. After talking to several of the people in the hotel I found out about half of the people LIVED in the hotel FULL TIME!! Our room was skipped over being cleaned SEVERAL times &amp; when I went to the front desk I was told the maids were gone for the day but our room would be put at the top of the list to be cleaned the  NEXT day (after it had not been cleaned in 3 days). We had no kitchen in our room, no microwave they didnt have a extra one for us to use but our room was the  SAME price as the other rooms with a full kitchen! They DO NOT have a hot tub, swimming pool, exercise room, office space, meeting room...Parking IS THE WORST I HAVE EVER SEEN ANYWHERE! There is not enough parking spots for all the cars so you have to park on the street but on the week days between like 6am-5pm you get towed so you have to park in the neighborhood around the corner. I older lady had a handycap sign &amp; was at the front desk complaing on several days that she couldnt park in the handycap spot because there was other cars with NO sign parked there &amp; she was told they could not do anything about it &amp; for her to call the cops herself if she wanted to park there...they got tired of her complaining about it so they said they were going to put a orange cone there &amp; not let anyone park there! Internet worked most of the time but it was SUPER SLOW! Hot water most of the time....Loud street/car traffic...lots of "family fights"...If you have children you would be better off staying in your car or driving around to find a better family hotel as to being exposed to adult content at this hotel!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2462,7629 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>116</v>
+      </c>
+      <c r="X16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>131</v>
+      </c>
+      <c r="X18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X21" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>151</v>
+      </c>
+      <c r="X22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>151</v>
+      </c>
+      <c r="X23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>151</v>
+      </c>
+      <c r="X24" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>144</v>
+      </c>
+      <c r="X25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>144</v>
+      </c>
+      <c r="X26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>144</v>
+      </c>
+      <c r="X27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>144</v>
+      </c>
+      <c r="X28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>131</v>
+      </c>
+      <c r="X29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>131</v>
+      </c>
+      <c r="X30" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>188</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>210</v>
+      </c>
+      <c r="X31" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" t="s">
+        <v>215</v>
+      </c>
+      <c r="L32" t="s">
+        <v>216</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>218</v>
+      </c>
+      <c r="X32" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>218</v>
+      </c>
+      <c r="X33" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>218</v>
+      </c>
+      <c r="X34" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>229</v>
+      </c>
+      <c r="O35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" t="s">
+        <v>234</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>229</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s">
+        <v>241</v>
+      </c>
+      <c r="L38" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>243</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>245</v>
+      </c>
+      <c r="J39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>243</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J42" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>257</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" t="s">
+        <v>260</v>
+      </c>
+      <c r="K43" t="s">
+        <v>266</v>
+      </c>
+      <c r="L43" t="s">
+        <v>267</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>257</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" t="s">
+        <v>271</v>
+      </c>
+      <c r="L44" t="s">
+        <v>272</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>273</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>273</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" t="s">
+        <v>280</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>285</v>
+      </c>
+      <c r="X47" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>288</v>
+      </c>
+      <c r="J48" t="s">
+        <v>289</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>285</v>
+      </c>
+      <c r="X48" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>291</v>
+      </c>
+      <c r="J49" t="s">
+        <v>292</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>293</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>285</v>
+      </c>
+      <c r="X49" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" t="s">
+        <v>297</v>
+      </c>
+      <c r="L50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>293</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" t="s">
+        <v>301</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>293</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>303</v>
+      </c>
+      <c r="J52" t="s">
+        <v>304</v>
+      </c>
+      <c r="K52" t="s">
+        <v>305</v>
+      </c>
+      <c r="L52" t="s">
+        <v>306</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>307</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>309</v>
+      </c>
+      <c r="J53" t="s">
+        <v>310</v>
+      </c>
+      <c r="K53" t="s">
+        <v>311</v>
+      </c>
+      <c r="L53" t="s">
+        <v>312</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>307</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>314</v>
+      </c>
+      <c r="J54" t="s">
+        <v>315</v>
+      </c>
+      <c r="K54" t="s">
+        <v>316</v>
+      </c>
+      <c r="L54" t="s">
+        <v>317</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>307</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s">
+        <v>322</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>307</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>324</v>
+      </c>
+      <c r="J56" t="s">
+        <v>325</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>326</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>328</v>
+      </c>
+      <c r="J57" t="s">
+        <v>329</v>
+      </c>
+      <c r="K57" t="s">
+        <v>330</v>
+      </c>
+      <c r="L57" t="s">
+        <v>331</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>326</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>333</v>
+      </c>
+      <c r="J58" t="s">
+        <v>334</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>335</v>
+      </c>
+      <c r="O58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>336</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>337</v>
+      </c>
+      <c r="J59" t="s">
+        <v>338</v>
+      </c>
+      <c r="K59" t="s">
+        <v>339</v>
+      </c>
+      <c r="L59" t="s">
+        <v>340</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>341</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>342</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" t="s">
+        <v>344</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>341</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>346</v>
+      </c>
+      <c r="J61" t="s">
+        <v>347</v>
+      </c>
+      <c r="K61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L61" t="s">
+        <v>349</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>350</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>352</v>
+      </c>
+      <c r="J62" t="s">
+        <v>353</v>
+      </c>
+      <c r="K62" t="s">
+        <v>354</v>
+      </c>
+      <c r="L62" t="s">
+        <v>355</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>356</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>357</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" t="s">
+        <v>359</v>
+      </c>
+      <c r="K63" t="s">
+        <v>360</v>
+      </c>
+      <c r="L63" t="s">
+        <v>361</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>356</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J64" t="s">
+        <v>365</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>95</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>356</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s">
+        <v>369</v>
+      </c>
+      <c r="L65" t="s">
+        <v>370</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>371</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>372</v>
+      </c>
+      <c r="X65" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>375</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>376</v>
+      </c>
+      <c r="J66" t="s">
+        <v>377</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>95</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>371</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>372</v>
+      </c>
+      <c r="X66" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>378</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>379</v>
+      </c>
+      <c r="J67" t="s">
+        <v>380</v>
+      </c>
+      <c r="K67" t="s">
+        <v>381</v>
+      </c>
+      <c r="L67" t="s">
+        <v>382</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>371</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>372</v>
+      </c>
+      <c r="X67" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>384</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" t="s">
+        <v>386</v>
+      </c>
+      <c r="K68" t="s">
+        <v>387</v>
+      </c>
+      <c r="L68" t="s">
+        <v>388</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>389</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>372</v>
+      </c>
+      <c r="X68" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>392</v>
+      </c>
+      <c r="J69" t="s">
+        <v>393</v>
+      </c>
+      <c r="K69" t="s">
+        <v>394</v>
+      </c>
+      <c r="L69" t="s">
+        <v>395</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>389</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>372</v>
+      </c>
+      <c r="X69" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>398</v>
+      </c>
+      <c r="J70" t="s">
+        <v>399</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>400</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>401</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>402</v>
+      </c>
+      <c r="J71" t="s">
+        <v>403</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>404</v>
+      </c>
+      <c r="O71" t="s">
+        <v>84</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>406</v>
+      </c>
+      <c r="J72" t="s">
+        <v>407</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>404</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>408</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>409</v>
+      </c>
+      <c r="J73" t="s">
+        <v>407</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>404</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>410</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>411</v>
+      </c>
+      <c r="J74" t="s">
+        <v>412</v>
+      </c>
+      <c r="K74" t="s">
+        <v>413</v>
+      </c>
+      <c r="L74" t="s">
+        <v>414</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>415</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>416</v>
+      </c>
+      <c r="X74" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>419</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>420</v>
+      </c>
+      <c r="J75" t="s">
+        <v>421</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>95</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>415</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>416</v>
+      </c>
+      <c r="X75" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>422</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>423</v>
+      </c>
+      <c r="J76" t="s">
+        <v>424</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>95</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>415</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>425</v>
+      </c>
+      <c r="X76" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>427</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>428</v>
+      </c>
+      <c r="J77" t="s">
+        <v>429</v>
+      </c>
+      <c r="K77" t="s">
+        <v>430</v>
+      </c>
+      <c r="L77" t="s">
+        <v>431</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>432</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>425</v>
+      </c>
+      <c r="X77" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>434</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>435</v>
+      </c>
+      <c r="J78" t="s">
+        <v>436</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>95</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>437</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>438</v>
+      </c>
+      <c r="X78" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>440</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>441</v>
+      </c>
+      <c r="J79" t="s">
+        <v>442</v>
+      </c>
+      <c r="K79" t="s">
+        <v>443</v>
+      </c>
+      <c r="L79" t="s">
+        <v>444</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>432</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>438</v>
+      </c>
+      <c r="X79" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>446</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>447</v>
+      </c>
+      <c r="J80" t="s">
+        <v>448</v>
+      </c>
+      <c r="K80" t="s">
+        <v>449</v>
+      </c>
+      <c r="L80" t="s">
+        <v>450</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>451</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>452</v>
+      </c>
+      <c r="X80" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>455</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>456</v>
+      </c>
+      <c r="J81" t="s">
+        <v>457</v>
+      </c>
+      <c r="K81" t="s">
+        <v>458</v>
+      </c>
+      <c r="L81" t="s">
+        <v>459</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>451</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>452</v>
+      </c>
+      <c r="X81" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>461</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>462</v>
+      </c>
+      <c r="J82" t="s">
+        <v>463</v>
+      </c>
+      <c r="K82" t="s">
+        <v>464</v>
+      </c>
+      <c r="L82" t="s">
+        <v>465</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>451</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>452</v>
+      </c>
+      <c r="X82" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>467</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>468</v>
+      </c>
+      <c r="J83" t="s">
+        <v>469</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>95</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>437</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>470</v>
+      </c>
+      <c r="X83" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>472</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>473</v>
+      </c>
+      <c r="J84" t="s">
+        <v>474</v>
+      </c>
+      <c r="K84" t="s">
+        <v>475</v>
+      </c>
+      <c r="L84" t="s">
+        <v>476</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>437</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>452</v>
+      </c>
+      <c r="X84" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>478</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>479</v>
+      </c>
+      <c r="J85" t="s">
+        <v>480</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s">
+        <v>95</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>481</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>452</v>
+      </c>
+      <c r="X85" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>482</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>483</v>
+      </c>
+      <c r="J86" t="s">
+        <v>484</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s">
+        <v>95</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>485</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>452</v>
+      </c>
+      <c r="X86" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>486</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>487</v>
+      </c>
+      <c r="J87" t="s">
+        <v>488</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>485</v>
+      </c>
+      <c r="O87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>452</v>
+      </c>
+      <c r="X87" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>489</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>490</v>
+      </c>
+      <c r="J88" t="s">
+        <v>491</v>
+      </c>
+      <c r="K88" t="s">
+        <v>492</v>
+      </c>
+      <c r="L88" t="s">
+        <v>493</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>494</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>496</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>497</v>
+      </c>
+      <c r="J89" t="s">
+        <v>498</v>
+      </c>
+      <c r="K89" t="s">
+        <v>499</v>
+      </c>
+      <c r="L89" t="s">
+        <v>500</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>501</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>502</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>503</v>
+      </c>
+      <c r="J90" t="s">
+        <v>504</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s">
+        <v>95</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>501</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>505</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>506</v>
+      </c>
+      <c r="J91" t="s">
+        <v>507</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s">
+        <v>95</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>501</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>508</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>509</v>
+      </c>
+      <c r="J92" t="s">
+        <v>510</v>
+      </c>
+      <c r="K92" t="s">
+        <v>511</v>
+      </c>
+      <c r="L92" t="s">
+        <v>512</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>513</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>515</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>516</v>
+      </c>
+      <c r="J93" t="s">
+        <v>517</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>518</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>519</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>520</v>
+      </c>
+      <c r="J94" t="s">
+        <v>521</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>518</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>522</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>523</v>
+      </c>
+      <c r="J95" t="s">
+        <v>524</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s">
+        <v>95</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>525</v>
+      </c>
+      <c r="O95" t="s">
+        <v>91</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>526</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>527</v>
+      </c>
+      <c r="J96" t="s">
+        <v>528</v>
+      </c>
+      <c r="K96" t="s">
+        <v>529</v>
+      </c>
+      <c r="L96" t="s">
+        <v>530</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>525</v>
+      </c>
+      <c r="O96" t="s">
+        <v>79</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>531</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>532</v>
+      </c>
+      <c r="J97" t="s">
+        <v>528</v>
+      </c>
+      <c r="K97" t="s">
+        <v>533</v>
+      </c>
+      <c r="L97" t="s">
+        <v>534</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>535</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J98" t="s">
+        <v>537</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>538</v>
+      </c>
+      <c r="O98" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>539</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>540</v>
+      </c>
+      <c r="J99" t="s">
+        <v>541</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>538</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>542</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>543</v>
+      </c>
+      <c r="J100" t="s">
+        <v>541</v>
+      </c>
+      <c r="K100" t="s">
+        <v>544</v>
+      </c>
+      <c r="L100" t="s">
+        <v>545</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>546</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>547</v>
+      </c>
+      <c r="J101" t="s">
+        <v>548</v>
+      </c>
+      <c r="K101" t="s">
+        <v>549</v>
+      </c>
+      <c r="L101" t="s">
+        <v>550</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>551</v>
+      </c>
+      <c r="O101" t="s">
+        <v>79</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>552</v>
+      </c>
+      <c r="X101" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>555</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>556</v>
+      </c>
+      <c r="J102" t="s">
+        <v>548</v>
+      </c>
+      <c r="K102" t="s">
+        <v>557</v>
+      </c>
+      <c r="L102" t="s">
+        <v>558</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>551</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>552</v>
+      </c>
+      <c r="X102" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>560</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>561</v>
+      </c>
+      <c r="J103" t="s">
+        <v>562</v>
+      </c>
+      <c r="K103" t="s">
+        <v>563</v>
+      </c>
+      <c r="L103" t="s">
+        <v>564</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>551</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>552</v>
+      </c>
+      <c r="X103" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>566</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>567</v>
+      </c>
+      <c r="J104" t="s">
+        <v>568</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s">
+        <v>95</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>551</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>569</v>
+      </c>
+      <c r="X104" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>571</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>572</v>
+      </c>
+      <c r="J105" t="s">
+        <v>568</v>
+      </c>
+      <c r="K105" t="s">
+        <v>573</v>
+      </c>
+      <c r="L105" t="s">
+        <v>574</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>551</v>
+      </c>
+      <c r="O105" t="s">
+        <v>71</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>569</v>
+      </c>
+      <c r="X105" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>576</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>577</v>
+      </c>
+      <c r="J106" t="s">
+        <v>578</v>
+      </c>
+      <c r="K106" t="s">
+        <v>579</v>
+      </c>
+      <c r="L106" t="s">
+        <v>580</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>551</v>
+      </c>
+      <c r="O106" t="s">
+        <v>91</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>569</v>
+      </c>
+      <c r="X106" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>582</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>583</v>
+      </c>
+      <c r="J107" t="s">
+        <v>584</v>
+      </c>
+      <c r="K107" t="s">
+        <v>585</v>
+      </c>
+      <c r="L107" t="s">
+        <v>586</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>587</v>
+      </c>
+      <c r="X107" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>590</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>591</v>
+      </c>
+      <c r="J108" t="s">
+        <v>592</v>
+      </c>
+      <c r="K108" t="s">
+        <v>593</v>
+      </c>
+      <c r="L108" t="s">
+        <v>594</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>551</v>
+      </c>
+      <c r="O108" t="s">
+        <v>79</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>587</v>
+      </c>
+      <c r="X108" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>596</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>597</v>
+      </c>
+      <c r="J109" t="s">
+        <v>592</v>
+      </c>
+      <c r="K109" t="s">
+        <v>598</v>
+      </c>
+      <c r="L109" t="s">
+        <v>599</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>587</v>
+      </c>
+      <c r="X109" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>601</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>602</v>
+      </c>
+      <c r="J110" t="s">
+        <v>603</v>
+      </c>
+      <c r="K110" t="s">
+        <v>604</v>
+      </c>
+      <c r="L110" t="s">
+        <v>605</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>606</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>587</v>
+      </c>
+      <c r="X110" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>608</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>609</v>
+      </c>
+      <c r="J111" t="s">
+        <v>610</v>
+      </c>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s">
+        <v>95</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>606</v>
+      </c>
+      <c r="O111" t="s">
+        <v>91</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>611</v>
+      </c>
+      <c r="X111" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>613</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>614</v>
+      </c>
+      <c r="J112" t="s">
+        <v>615</v>
+      </c>
+      <c r="K112" t="s"/>
+      <c r="L112" t="s">
+        <v>95</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>616</v>
+      </c>
+      <c r="O112" t="s">
+        <v>71</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>617</v>
+      </c>
+      <c r="X112" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>619</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>620</v>
+      </c>
+      <c r="J113" t="s">
+        <v>621</v>
+      </c>
+      <c r="K113" t="s"/>
+      <c r="L113" t="s">
+        <v>95</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>622</v>
+      </c>
+      <c r="O113" t="s">
+        <v>71</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>617</v>
+      </c>
+      <c r="X113" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>623</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>624</v>
+      </c>
+      <c r="J114" t="s">
+        <v>625</v>
+      </c>
+      <c r="K114" t="s">
+        <v>626</v>
+      </c>
+      <c r="L114" t="s">
+        <v>627</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>628</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>617</v>
+      </c>
+      <c r="X114" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>630</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>631</v>
+      </c>
+      <c r="J115" t="s">
+        <v>632</v>
+      </c>
+      <c r="K115" t="s"/>
+      <c r="L115" t="s">
+        <v>95</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>628</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>3</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>617</v>
+      </c>
+      <c r="X115" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>27075</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>633</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>634</v>
+      </c>
+      <c r="J116" t="s">
+        <v>635</v>
+      </c>
+      <c r="K116" t="s">
+        <v>636</v>
+      </c>
+      <c r="L116" t="s">
+        <v>637</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>638</v>
+      </c>
+      <c r="O116" t="s">
+        <v>53</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>1</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>617</v>
+      </c>
+      <c r="X116" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_793.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_793.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="746">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>266damitaj</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>frommj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r572890990-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>The hotel room I was assigned was VERY dirty.  The carpet had one spot with a wad of gum stuck to it and the carpeting was dirty enough to completely mark the bottom of my white socks.  Luckily I had to cut my trip short to return home.</t>
   </si>
   <si>
+    <t>tairzzz07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r562738639-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>asucenav2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r547223596-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>SelFer85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r543717384-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>dina1962c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r515038168-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Javier G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r515002887-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Alex213213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r506790510-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>GtechVelasquez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r506015132-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t xml:space="preserve">As a construction worker,  I'm very big on a good night sleep. The beds at this hotel are very comfortable. Coffee available to the guest is always a good thing. Great service, for  an affordable price. </t>
   </si>
   <si>
+    <t>Hung PoLo V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r505885391-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t>Warning!!! Please, do not go here is a scam hotel.I booked online a week ago for 2 nights than when I got there late midnight, I see the lobby's light was off and no one was there. I have been so many hotels and business trips, I thought they must have a 24 hour person there . So I had to drive around was looking for another place to stay. The next morning, I drop by the place and tell I was here and they said they already got people 24 hour. I told I waited for like 15 min and they said maybe they were on the back .. the light was off .. so I tell them I will stay for tonight then, they told they would charge me two nights anyway because that what I booked for how can of I was not there and stay no one checked me in .. so I looked for another hotel, but I called the manager of this place, and he won't do anything. Even they take my money,  so please don't book this hotel, very unfriendly and won't help anything!More</t>
   </si>
   <si>
+    <t>McGeeKay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r501699212-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -351,6 +384,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Mandy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r496974209-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t>My two-year-old daughter and I traveled from Texas with my husband for work at the refineries. To start off with they were already the cheapest hotel around but it is a bonus whenever the hotel does not Jack up their rates when a turnaround is in town! The rooms are very spacious we had a 1 bed 1level suite and it had  a huge kitchenette a full size fridge in our room and a four burner stove stove and oven! Also an island/bar... Queen bed .. 2 seater sofa.. coffee table .. dresser .. desk.. bar stools.. night stands.. Huge closet! Enough room for my daughter to run around and play. It was also great that they had movie channels along with Disney and Nickelodeon. As far as the staff goes they are absolutely amazing the housekeeping ( Lita, Ingrid, and Noami ) always did a great job cleaning up behind my messy 2 yr old and they even loved on her.. She was always excited to see them! The front desk ladies ( Carla and Maria ) were always so helpful ... informing me about places to take my kids or where to shop for certain things.... And so much more!!! I adore all the women they are the sweetest ladies and made us all feel at home!! Byron the manager and Oscar maintenance were also very helpful with helping me with the washing machine. This place may not...My two-year-old daughter and I traveled from Texas with my husband for work at the refineries. To start off with they were already the cheapest hotel around but it is a bonus whenever the hotel does not Jack up their rates when a turnaround is in town! The rooms are very spacious we had a 1 bed 1level suite and it had  a huge kitchenette a full size fridge in our room and a four burner stove stove and oven! Also an island/bar... Queen bed .. 2 seater sofa.. coffee table .. dresser .. desk.. bar stools.. night stands.. Huge closet! Enough room for my daughter to run around and play. It was also great that they had movie channels along with Disney and Nickelodeon. As far as the staff goes they are absolutely amazing the housekeeping ( Lita, Ingrid, and Noami ) always did a great job cleaning up behind my messy 2 yr old and they even loved on her.. She was always excited to see them! The front desk ladies ( Carla and Maria ) were always so helpful ... informing me about places to take my kids or where to shop for certain things.... And so much more!!! I adore all the women they are the sweetest ladies and made us all feel at home!! Byron the manager and Oscar maintenance were also very helpful with helping me with the washing machine. This place may not be a 5star hilton hotel but the charm of the people make this place amazing! I know I raved on and on.. But coming from thousands of miles with a toddler and staying in a hotel is stressful and scary and I never felt that way here! Home away from home. The ONLY downside I have ( yes I do laugh about it ) is we drive a big megacab dually and parking that in the parking garage is a challenge ... But I am super proud of myself and always felt accomplished after parking :-) and this isn't just the hotel everything around here is compact parking haha. Well to finish yall off I HIGHLY recommend this hotel.. Call Carla now and book a room you won't regret it!More</t>
   </si>
   <si>
+    <t>N3228BNcesarm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r495017988-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -396,6 +435,9 @@
     <t>I stayed here for a week with my family and I was pleasantly surprise with the quality and service .I highly recommended it to everyone.More</t>
   </si>
   <si>
+    <t>glorijane w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r492238180-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>I was hesitant when my dad said he booked this hotel because of the mixed reviews.  The only thing that impressed was the size of the room much bigger than our Vegas hotel.  The layout is weird for the location of the bathroom.  Shower was hot bed was comfy.  I wouldn't stay long term.  Breakfast was very basic and parking a little tight.  View of the highway not a place for scenery.    More</t>
   </si>
   <si>
+    <t>976ariasv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r491648023-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -438,6 +483,9 @@
     <t>Made an error on my reservation and management was nice enough to give me a 2level suite upgrade, breakfast was nice specially the breakfast attendant she was so helpful and sweet. Yes yes yes will come back again thank you Travelodge More</t>
   </si>
   <si>
+    <t>alexandero779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r490127706-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -456,6 +504,9 @@
     <t>Responded June 5, 2017</t>
   </si>
   <si>
+    <t>clairewA5618BR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r484452883-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -480,6 +531,9 @@
     <t>Nice suite for the value. Entrance via Parking garage was a bit more intimidating but hotel desk team Maria, Tanya, Helen and Carla are terrific. More</t>
   </si>
   <si>
+    <t>nahilahm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r476849692-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -492,6 +546,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>287eddief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r476639618-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -501,6 +558,9 @@
     <t>04/17/2017</t>
   </si>
   <si>
+    <t>27josez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r468327261-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -522,6 +582,9 @@
     <t>This was a very bad experience for me and my family,I booked a room here for 4 days and had 2 check out after 1,the conditions of the room were very bad,the icing on the cake was the roches that were crusing later in the evening,will not stay here again,they still have not reimburst my last 3 days like they said they would.More</t>
   </si>
   <si>
+    <t>Sherie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r468260016-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -537,6 +600,9 @@
     <t>I have never seen a lobby and breakfast area to a hotel that looked like the one here. I was saying to myself what the hell did I pay for but when I got to my room I didn't care how the lobby looked. My room was veeeeeeeery spacious oh wait no microwave, fridge, or mirror. Only mirror there was in the bathroom. Overall I loved that room. The bed was comfortable and I could smell bleach in the sheets so I was not afraid to sleep on the sheets. Carpet was pretty clean. I loved it Room 103.More</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r466524920-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -555,6 +621,9 @@
     <t>This hotel is only good if you need a roof over your head. Their breakfast was cereal and toast. The rooms smelled funny. The room I was in had a shared door to the room next to mine. The other guests were extremely loud and were yelling and running up and down the halls. This establishment looked like it was primarily for hookers and drug dealers.More</t>
   </si>
   <si>
+    <t>schlenky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r463012408-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -567,6 +636,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>laquwandaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r458356471-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -588,6 +660,9 @@
     <t>Furniture needs to be dusted. But the bed is comfortable. Carpet is old. And the sensor light doesn't cut off so everytime is turned over the light came on. Very frustrating. But it meets the basic needs of having a place to rest. More</t>
   </si>
   <si>
+    <t>Kevin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r458338846-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -603,6 +678,9 @@
     <t>When we checked in everything seemed ok, but once we got to our room it all went bad. The first thing I noticed was the locks on the door were all broken and looked like they had been kicked in, so I started to look around the rest of the room, when the yelling from somewhere around started, it then there was banging on the common wall to my room, more yelling, door slamming, then into the hallway. I decided that I wasn't going to stay here, picked up my bag and went to leave. I encountered the yellers in the hallway as I was leaving when one of them started getting up at me for looking at them as I was leaving. Checked out, complained to the desk and left.More</t>
   </si>
   <si>
+    <t>Mmeven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r453820831-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -621,6 +699,9 @@
     <t>Byron and Carla were very friendly and went out of their way to ensure our satisfaction during our stay here. More</t>
   </si>
   <si>
+    <t>tonyah873</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r453091188-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -639,6 +720,9 @@
     <t>Heating unit didn't work, kitchen sink backed up and I had to plunge it myself. Toilet seat was brown. There were private parties abd fights every night, keeping me awake. I called to report that and nothing was done.More</t>
   </si>
   <si>
+    <t>L9520POjamesj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r449953247-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -654,6 +738,9 @@
     <t>Responded January 11, 2017</t>
   </si>
   <si>
+    <t>M9894JRjamesh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r437922387-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -678,6 +765,9 @@
     <t>I want to call out the front desk clerk who helped me check in (wish I caught her name) 11-12-16.  My reservation was not sent to the hotel via the 3rd party site I used so when I tried to check in, she could not find anything in the system.  After about 10 mins of trying other ways to find it, she called the 3rd party on her cell phone and proceeded to wait on hold for 20+ mins.  Once she got a hold of a service rep, she found out it was their error in not sending the info.  She checked me in to the last room available and apologizing that the bed size was not the same as I reserved even though it was not their error.  It's that type of service you wish you could see more often from all industries!More</t>
   </si>
   <si>
+    <t>traveler101358</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r435641506-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -687,6 +777,9 @@
     <t>11/08/2016</t>
   </si>
   <si>
+    <t>K5802UVwilliamr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r435400507-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -696,6 +789,9 @@
     <t>11/07/2016</t>
   </si>
   <si>
+    <t>593charlav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r422186757-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -708,6 +804,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>John W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r419994909-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -723,6 +822,9 @@
     <t>The hotel is in a great location, but I was visited by a mouse in my room.  The front desk asked if I wanted to change my room, but I decided what's the use?  I have been in this room for almost a week, I know the room has a mouse in it and moving to a new room may have more mice!  I have been to two other hotels in Gardena area, this is probably the best one to stay, yes even with mice.</t>
   </si>
   <si>
+    <t>shadonns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r416581563-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -732,6 +834,9 @@
     <t>09/09/2016</t>
   </si>
   <si>
+    <t>841antonettew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r408312833-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -750,6 +855,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Wry J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r406897787-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -759,6 +867,9 @@
     <t>08/17/2016</t>
   </si>
   <si>
+    <t>Jessica D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r406213097-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -774,6 +885,9 @@
     <t>I decided to go with this hotel because in the previous reviews from other they commented it was just remodeled. and it wasn't, it was small, smelly and dirty. I always have a habit of bringing my own sheets and glad I did because I found one bug on the bed. Didn't even get new soap, only used from previous guest, same with the trash. You could just tell that owner don't have high standards. If your picky with hygiene don't stay here. it's gross!!#</t>
   </si>
   <si>
+    <t>637amelieg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r397993683-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -792,6 +906,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>mur25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r390901356-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -810,6 +927,9 @@
     <t>Got in late after a long day of traveling. The room was so hot and stuffy it was almost unbearable. It was a two story room with only a small wall air conditioner in the lower level; the loft had no air conditioner unit and the window in the loft did not open.  We asked the office for use of a fan, but they said none was available.  They commented "oh, you should have called and we would have turned the air on for you".   Customer service and housekeeping was poor overall; took our hand towels and wash cloths that were not on the floor, but still in use - however did not replace them.   Housekeeping was gone when we noticed and had to go down and get from the desk ourselves.  Also when we arrived there was hairs in one of the beds.  Kitchen was advertised as a 'full kitchen', but no microwave/convention oven, and only  two burners and a small dorm type fridge.  Also they should not advertise as a full kitchen as there  was not one item to use  such as pots/frying pan/toaster, etc.   Also the continental breakfast as advertised was not good at all; it was horrible and cheap!  First of all after check in we found out the time was only to 930 AM, and the items available were only milk, juice, and only two kinds of cereal along with only white bread for toast,...Got in late after a long day of traveling. The room was so hot and stuffy it was almost unbearable. It was a two story room with only a small wall air conditioner in the lower level; the loft had no air conditioner unit and the window in the loft did not open.  We asked the office for use of a fan, but they said none was available.  They commented "oh, you should have called and we would have turned the air on for you".   Customer service and housekeeping was poor overall; took our hand towels and wash cloths that were not on the floor, but still in use - however did not replace them.   Housekeeping was gone when we noticed and had to go down and get from the desk ourselves.  Also when we arrived there was hairs in one of the beds.  Kitchen was advertised as a 'full kitchen', but no microwave/convention oven, and only  two burners and a small dorm type fridge.  Also they should not advertise as a full kitchen as there  was not one item to use  such as pots/frying pan/toaster, etc.   Also the continental breakfast as advertised was not good at all; it was horrible and cheap!  First of all after check in we found out the time was only to 930 AM, and the items available were only milk, juice, and only two kinds of cereal along with only white bread for toast, and cheap individual bear claws/cheese Danishes.   There was no fruit or anything else that normally comes in a basic continental breakfast.  Also poor customer service here as well, the worker brought some more milk out when we asked, but neglected to see that there were no more cups, napkins, spoons, or bear claws/Danishes.    Then right after bringing the spoons before we noticed the other items, she put up a sign stating she went on break.  Three other groups came in and could not get service.  The extra money paid for a motel/hotel room with a full kitchen and a continental breakfast was not worth it at all.  Plus we had to go buy a fan, just so our two teens could sleep in the loft.   TV control worked poorly as well.  The room also appeared recently renovated, but done very cheaply.  Also not enough parking in the parking garage for the rooms they have.   Felt unsecure parking our car over a block away one night.  We do not recommend this travel lodge.More</t>
   </si>
   <si>
+    <t>hollish827</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r390851598-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -820,6 +940,9 @@
   </si>
   <si>
     <t>The suite is not really set up as a residence: one would expect dishes, silverware, a few cooking implements. Two-level room needs a ceiling fan or some way of evenilng out the temperature level of the two levels: upper level is much warmer than the lower. Service was good. Layout essentially attractive, room was clean.</t>
+  </si>
+  <si>
+    <t>CA-CFF</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r387150436-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
@@ -851,6 +974,9 @@
 The air conditioning worked well for downstairs, but the upstairs loft was uncomfortable. I had to turn the A/C down to 60 degrees and aim the vents directly up...We arrived a little after 4pm to find that our room was not ready. Housekeeping left the door ajar and some supplies inside. Spoke with front desk and was assured she had personally walked through the room and that it was clean, but they must've forgotten to grab the items. Housekeeping came back to room with vacuum and continued to clean while we awkwardly waited outside the room. It took about 20-30 minutes after checking in before we were able to get in the room.Since the room had been hastily cleaned we took a look around. There was a sunflower seed and food crumbs under a mattress pad and the upstairs bathroom floor was covered in hair. I tried to wipe it up myself since we had already been delayed getting into the room and we had somewhere to be.After trying unsuccessfully to connect to the wifi I contacted the front desk who said they would reset the router. Only one of us was finally able to connect to it.I requested some extra towels, sheets and a blanket since my nephew was going to sleep on the couch. Most of the items were brought up quickly, but I was told that they didn't have any blankets to spare. The air conditioning worked well for downstairs, but the upstairs loft was uncomfortable. I had to turn the A/C down to 60 degrees and aim the vents directly up to make any difference up there. It finally cooled down at about 10p, but my family sleeping downstairs were freezing.The room was a suite with a kitchen. There was a stovetop, microwave and mini fridge. Any time I have stayed in a room like this there were dishes, utensils and cookware. This kitchen was bare.Breakfast was individually packaged pastries, bread for toast, 2 kinds of cereal, package of instant oatmeal, some apples, orange juice, milk and coffee. It was pretty sparse when we went down around 815a, but by the time we went back up it had been partially restocked.Overall, I was slightly uncomfortable in this room. I didn't want to sit on the couch or the desk chair and I definitely did not go barefoot. I was disappointed in the room based on the price we paid, which was approx $135 after using a Wyndham Rewards coupon code. It wasn't horrible, but I won't be staying again nor recommending this location.More</t>
   </si>
   <si>
+    <t>Lisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r386490803-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -860,6 +986,9 @@
     <t>06/27/2016</t>
   </si>
   <si>
+    <t>Constance H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r384920076-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -869,6 +998,9 @@
     <t>06/22/2016</t>
   </si>
   <si>
+    <t>July G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r373547163-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -887,6 +1019,9 @@
     <t>Responded May 23, 2016</t>
   </si>
   <si>
+    <t>Lujan J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r372882417-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -896,6 +1031,9 @@
     <t>05/14/2016</t>
   </si>
   <si>
+    <t>ib1990princess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r368317797-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -908,6 +1046,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>mariaaR8207YN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r363915019-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -923,6 +1064,9 @@
     <t xml:space="preserve">We were first given a room key to a room that was not ready and then there was a spider in the shower. The pictures online seem wonderful but there is a lot of echo and a depressing feeling to the room  </t>
   </si>
   <si>
+    <t>dale791</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r363742698-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -932,6 +1076,9 @@
     <t>04/12/2016</t>
   </si>
   <si>
+    <t>Zully C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r358791402-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -950,6 +1097,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Misty L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r356934584-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -965,6 +1115,9 @@
     <t>Horrible smelled really bad, dirty, strong mold smell, cup stains on counters and dressers... Burn holes in blankets, BM on wall behind the toilet. They should be renting these out for free. Spoke with front desk and no one was willing to come check room. I watch to much hotel impossible to put up with this type of service.... Simply horrible. Family trip ruined by this horrible unrelenting smell..</t>
   </si>
   <si>
+    <t>sweetielove1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r355977775-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -980,6 +1133,9 @@
     <t>I love coming here the staff is always smiling and so helpfull and the front desk is alway helpffull when needed but also they are never rude with eney thing thay give respect and i will love this place till i cant no more</t>
   </si>
   <si>
+    <t>ajw411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r354253608-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -995,6 +1151,9 @@
     <t>I was bothered to read some of the reviews left about this hidden gem. When you book a room you can see the map it clearly shows the freeway so you should know its a chance you take,  however I have stayed at this location several times  I was not able to hear any freeway traffic,the staff will bend over backwards to help you with anything  rooms are very spacious and clean. Parking can be tight at times, but all in all this is a hidden gem with clean rooms comfortable beds and awesome staff</t>
   </si>
   <si>
+    <t>tyeshah2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r349899156-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1007,6 +1166,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>petambassador2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r348733153-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1022,6 +1184,9 @@
     <t>The staff and management are really niče. The rooms are excellent. Breakfast is included nad most rooms are full kitchens.</t>
   </si>
   <si>
+    <t>J J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r342732111-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1034,6 +1199,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>801madelinem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r327159630-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1061,6 +1229,9 @@
     <t>11/06/2015</t>
   </si>
   <si>
+    <t>Maria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r322133743-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1079,6 +1250,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Chefdking87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r313291447-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1097,6 +1271,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>hapibambolbi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r313048462-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1115,6 +1292,9 @@
     <t>This is an old hotel near the freeway that has seen better days. Paint is peeling on walls, the drawers on the armoire are askew, some light fixtures don't work and for some reason the remote for the tv didn't work. Basic breakfast  is served from 7:30 - 9:30 am and consists of oatmeal, cereal, Danish pastries, bread and jam, milk, on, and coffee. One day they had some apples and one day they had run out of cereal sms oatmeal by 8:30. Parking is limited. WiFi was so- so. You had to log back in whenever you didn't use for a period of time. The only one thing I liked was I could walk to a Kings Hawaiian bakery.Room top: ask for a room not facing the freeway as it can be bothersome.More</t>
   </si>
   <si>
+    <t>kzoey01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r311833047-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1124,6 +1304,9 @@
     <t>09/19/2015</t>
   </si>
   <si>
+    <t>398marvac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r303525138-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1151,6 +1334,9 @@
     <t>The location was decent but some of the noise from the freeway was loud..and some unsavory characters were hanging around late at nightMore</t>
   </si>
   <si>
+    <t>ebonyblondey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r302305864-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1160,6 +1346,9 @@
     <t>08/22/2015</t>
   </si>
   <si>
+    <t>887reginam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r299164975-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1178,6 +1367,9 @@
     <t>Essentially general initial impression was not inviting or safe . Room smelled stale. Why is the entrance in the parking lot dismal and scary.On the upside  Byron was very accommodating and pleasant in the morning.(He was from Guatemala and possibly worked the night shift. ) There was another young man who worked nights and was kind of enough to make coffee early for me.The first receptionist was not helpful or engaging.More</t>
   </si>
   <si>
+    <t>Jesse S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r293843076-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1229,6 +1421,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Sosa J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r267616291-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1241,6 +1436,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>lakobe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r267440228-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1250,12 +1448,18 @@
     <t>04/22/2015</t>
   </si>
   <si>
+    <t>Wendy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r267413852-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
     <t>267413852</t>
   </si>
   <si>
+    <t>Matthew T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r257365675-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1283,6 +1487,9 @@
     <t>There was quite a bit of noise. Neither me nor my wife for much sleep. From the pipes making a ton of noise every time the neighbors used water to the neighbors themselves fighting, sleep was nonexistent. Oh, and the mattresses were mega-stiff. I guess that matches the rest of the furniture. The couch I sat on was really uncomfortable and looked like it was scored from a street corner as well. More</t>
   </si>
   <si>
+    <t>Zendejas Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r256816473-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1292,6 +1499,9 @@
     <t>02/27/2015</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r253904200-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1307,6 +1517,9 @@
     <t>Responded February 18, 2015</t>
   </si>
   <si>
+    <t>jimenezs2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r252330982-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1328,6 +1541,9 @@
     <t>At first I was hesitant in staying at this hotel but overall I am very happy with my stay. Staff was very friendly and helpful and very clean atmosphere, very welcoming. Can't complain I will definitely recommend to my friends and family. And I'll definitely be back for future stays. More</t>
   </si>
   <si>
+    <t>carletteg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r250942513-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1362,6 +1578,9 @@
   </si>
   <si>
     <t>Hotel is under many renovations, however the construction did not bother me during my stay. The breakfast was simple and quick. The waffles were really delicious, and everything was fully stocked. The location is centrally located to the city and beach. The staff was friendly and answered all my questions. I will definitely choose the travelodge in Gardena for further business trips. More</t>
+  </si>
+  <si>
+    <t>Julia G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r247015552-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
@@ -1413,6 +1632,9 @@
     <t>Enjoyed my stay the service is excellent rooms are comfortable, enjoy breakfast specially the waffles. Manager and staff check on us a couple of times make sure we had everything. Good luck on your renovation it starting to look awesome. More</t>
   </si>
   <si>
+    <t>cynthiab452</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r246736791-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1431,6 +1653,9 @@
     <t>I stayed overnight due to a power outage at my home. They have the best suites in town. Very clean and spacious.  I noticed there were renovations taking place at the time of my stay, and i am totally looking forward to coming back. Only problem i had was my remote wouldn't control all features on my t.v. Other than that, i was pleased. More</t>
   </si>
   <si>
+    <t>thomasgN1295SC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r240146141-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1446,6 +1671,9 @@
     <t>Responded December 22, 2014</t>
   </si>
   <si>
+    <t>C275EVnicolem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r239670454-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1464,6 +1692,9 @@
     <t>I stay here from time to time just to escape and get away. I enjoy the peace and quiet, bedding is very comfy and relaxing. The only minor inconvenience is the remote never works. I have to get out of the comfort of the bed to turn the volume up/down and tv off/on and movie channels should be offered....at least HBOMore</t>
   </si>
   <si>
+    <t>Mick R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r237194970-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1476,6 +1707,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Sho M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r230541860-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1488,6 +1722,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Stephanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r228185196-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1495,6 +1732,9 @@
   </si>
   <si>
     <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>realpatontheback</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r215535479-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
@@ -1532,6 +1772,9 @@
 Hotel layout is very strange - it was like a maze getting to our room. Lots of skylights, which did illuminate the dark interiors &amp; room. There were recesses in...I agree with the negative reviews. Hotel appears much nicer in photos! The paint job makes it appear cheery, given the neighborhood.Notes to management: The title of my review I think was the nicest problem. Not a professional grout job in the bath when three different grout colors are used.Please use bleach so stains don't appear on bath towels. Rotting frame around bottom of bath door. Towel quality ok.Don't advertise wifi if it's only available in the lobby. Room 203 doesn't have any.If you turn off the refrigerator between guests, leave the door open so it doesn't smell like FEET!!!! We used our cooler, as I didn't want the smell to migrate to our drinks. That was the worst part of our stay.Bed was comfy enough, &amp; linens were clean enough.If you keep a coffee carafe in the lobby, room temperature coffee is not pleasant at 7 a.m. We had to leave before breakfast, but I really wanted a cup. Same guy who checked me in checked us out, &amp; was asleep when I attempted to checkout. Knocking on bullett proof glass &amp; saying "hello" didn't wake him, so as soon as I knocked on the "employees only" door, he did wake. Pleasant staff.Hotel layout is very strange - it was like a maze getting to our room. Lots of skylights, which did illuminate the dark interiors &amp; room. There were recesses in the hallways for rooms. Size of room was quite large, as if it were once a residential hotel property with a closet that must have been at least 12' long.Call me paranoid, but I don't like underground parking in earthquake prone areas! I know that can't be helped, it's my issue!Despite the on/off ramp for the 405 below the window, it was remarkably quiet. Hotel was conveniently located, &amp; 85C bakery cafe is dangerously close - don't know why there was a line out the door &amp; a car line around the block for Krispy Kreme, also very close, but I HIGHLY recommend the 85C bakery across from it on Artesia. You'll find baked goods there that are wonderful and unique!The price for a room in LA was reasonable, $71 king, and just about all of the issues I mentioned can be fixed, but I would NOT return.More</t>
   </si>
   <si>
+    <t>JosephP1821</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r211134752-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1550,6 +1793,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Miguel R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r210498815-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1559,6 +1805,9 @@
     <t>06/15/2014</t>
   </si>
   <si>
+    <t>Cynthia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r210079058-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1568,6 +1817,9 @@
     <t>06/12/2014</t>
   </si>
   <si>
+    <t>Alan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r205402672-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1589,6 +1841,9 @@
     <t>I had a very pleasant stay here.  This is not my first time to stay at this facility on business and it won't be my last.  The rooms are nice and the rate is competitive.  Breakfast is pretty good but not quite as many items offered as in the past.  Guess they had to cut back somewhere, but still a good breakfast.  Friendly people at the desk especially Byron and Carla ( others are too but  i don't recall their names).  A little noisy during spring break but that is to be expected with the youngsters. Not fancy but for the price not a bad deal.  May be a bad area, I don't know, I didn't get that impression,  but with the Walmart and shopping close by, it is convenient for me.  Easy on and off the 405!More</t>
   </si>
   <si>
+    <t>Nathaniel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r202779322-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1610,6 +1865,9 @@
     <t>04/11/2014</t>
   </si>
   <si>
+    <t>Leslie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r195969102-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1622,6 +1880,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Christian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r195625329-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1637,6 +1898,9 @@
     <t>This hotel was recommended by a friend. The hotel price is great and rooms are very clean. Front desk were very friendly and helpful. My wife and I stayed in a Junior Suite with a kitchen, the only thing my wife would have liked is if they offered pots and pans. Other than that we had a pleasant stay.</t>
   </si>
   <si>
+    <t>Chris343434</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r195624973-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1649,6 +1913,9 @@
     <t xml:space="preserve">Have to say this was a good choice of hotel had thoughts at the beginning but it ended up being a good choice of my wife flew here from Oregon with my two kids so I needed a good room and I wasn't disappointed at all have to say the customer service and rooms were awesome I would recommended to anyone </t>
   </si>
   <si>
+    <t>Lashina H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r188472409-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1661,6 +1928,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Phillip D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r185379877-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1670,6 +1940,9 @@
     <t>11/20/2013</t>
   </si>
   <si>
+    <t>spfm1990</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r185363971-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1682,6 +1955,9 @@
     <t>Stayed there for a week very quiet house keeping was amazing cleand my room everyday ...easy freeway access room had lots of space no one too bother you with noice complimentary breakfast is a plus ....</t>
   </si>
   <si>
+    <t>Walter J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r182185593-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1709,6 +1985,9 @@
     <t>I didnt think much about this hotel cuz of the fact that its by the freeway and next to the train tracks but as soon as i went in, the staff greeted me like if ive known them for years and made me feel really comfortable. They made my stay very joyful. Cable was awesome, bed sheets and comforters felt and smelled clean (which is very important), complimentary breakfast (which was pretty delicious) and it was very close to several stores. Over all, it was a great stay. We will definitly be back if we're looking around the area.More</t>
   </si>
   <si>
+    <t>business-trekker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r182048956-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1724,6 +2003,9 @@
     <t>The Travelodge Inn and Suites is my favorite in the Gardena / Torrance area.  It's great for a business stay because it feels like home.  The neighborhood is quiet but close to work and to several shopping and business areas, plus the rooms are spacious and the price is right.  (The junior suites are quite roomy but the 2-level lofts are a real treat that is most unusual for the average hotel...  It's like being in a townhouse, a home away from home).   My favorite feature is the apartment sized kitchen, which for me, is a giant plus.  If you want, you can prepare a "home cooked meal but if not, there are several eating places close by, and the hotel breakfast is delicious.  Most important of all, the staff is really nice and very helpful.  My only real complaint is that the laundry room has only one washer and dryer which can be a hassle.  Overall, compared to other extended stay hotels, this one rates tops for me because it is unique and has a friendliness that most hotels seem to lack.More</t>
   </si>
   <si>
+    <t>Ivan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r182026885-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1742,6 +2024,9 @@
     <t>i stayed there 2 weks ago. I can honestly say the management really know how to run this place.The service we got was really good from the front desk agent and were really friendly. definately planning on coming back and will tell my friends to stay there. Ivan AguilarMore</t>
   </si>
   <si>
+    <t>Liz A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r181530029-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1757,6 +2042,9 @@
     <t>Responded October 21, 2013</t>
   </si>
   <si>
+    <t>juan n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r181501342-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1772,6 +2060,9 @@
     <t>i really like the location the breaskfast is really good and clean,i really like the service the rooms are nice and spacious the only thing i want to mention is carpet and hallways look durty, old,smell bad,but beside that everything was good,i enjoy my stay.More</t>
   </si>
   <si>
+    <t>Christina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r181397292-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1790,6 +2081,9 @@
     <t>I live in the city of Fullerton and I needed a place to stay over the weekend for a family wedding. I was considering others but I decided to stay here due to the reasonable pricing for a stay of 3 days. I stayed in a 2 bed suite because it was another family member and myself. It had a plasma TV and a kitchen which made it great for me because I'm not a fan of eating out. Unfortunately, it did not have cookware ready so I had to improvise. The neat thing about it was that the two beds were separate. One bed was downstairs and the other bed was upstairs, which gave me a private setting with my own bathroom as well. Great atmosphere! Breakfast ready to go for you in the morning downstairs in the lobby but only for a certain time span so you have to be attentive of what times you want to grab breakfast. Friendly customer service as well. Just few things to consider, the toiletries were not fancy so don’t expect name brands. Also, the walls aren’t sound proof so you can hear when people are walking through the halls and what not. But other than that, great place to stay.More</t>
   </si>
   <si>
+    <t>Richiefro21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r180581868-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1832,6 +2126,9 @@
     <t>I had A great stay in this very friendly Hotel. The front desk personnel was very helpful and they had the best rate. The room was very clean, bed was very comfortable. They also accommodating with extra pillows. They also had great Breakfast in the Morning. The only recommendation I have is cleaning the carpets a little better. I will definitely stay in the Hotel again..More</t>
   </si>
   <si>
+    <t>JoseCo5859</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r180421526-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1847,6 +2144,9 @@
     <t>After a long and stressful day of being stuck in the waiting room of a hospital, I did not have the strength to drive home. I saw this place as I was driving on the freeway and decided to get a room as I needed to return to the hospital in the morning. My check-in was very speedy and the clerk was kind enough to give me a list of food places that offer delivery to this place. The room had a nice clean smell to it and was really comfotable. I'm not a fan of sleeping on strange beds but I was able to get the much needed R&amp;R that I needed... I wasn't able to enjoy the full breakfast bar, but the young lady at the front desk offered me a pastry, and had made a fresh pot of coffee. I was so great full and happy with the service I got. The place could use some renovations but other than that I enjoyed my stay.More</t>
   </si>
   <si>
+    <t>Michelle0517</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r178862402-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1868,6 +2168,9 @@
     <t>I enjoyed my stay at this hotel, my room was quite comfortable. After a long day of stress full meetings; I was able to get the rest and relaxation that I so needed. When I First arrived I was greeted very nicely by the front desk clerk. He was very efficient and was able to accommodate me even though I had arrived early to check inn. As I walked into my room I was a bit skeptical because it faced the freeway. But when I checked the windows they were those double windows and you couldn't hear a sound. The size of the room was really great for a single I had enough room to put my work on the desk and other places. So I hadn't the need to use the bed as my desk, as I have in other hotels. The room as well as bathroom were very clean and spacey, which was a definite plus for me. Later I needed a nice place to have a business dinner and the front desk clerk recommended me to this wonderful place called Paradise, located a block away from the hotel. In the morning I enjoyed their "FREE" breakfast variety which was a delight and the attendant was very kind and her service was a "10". My check out was prompt and easy. All in all I can say that I will be making this hotel my number one choice...I enjoyed my stay at this hotel, my room was quite comfortable. After a long day of stress full meetings; I was able to get the rest and relaxation that I so needed. When I First arrived I was greeted very nicely by the front desk clerk. He was very efficient and was able to accommodate me even though I had arrived early to check inn. As I walked into my room I was a bit skeptical because it faced the freeway. But when I checked the windows they were those double windows and you couldn't hear a sound. The size of the room was really great for a single I had enough room to put my work on the desk and other places. So I hadn't the need to use the bed as my desk, as I have in other hotels. The room as well as bathroom were very clean and spacey, which was a definite plus for me. Later I needed a nice place to have a business dinner and the front desk clerk recommended me to this wonderful place called Paradise, located a block away from the hotel. In the morning I enjoyed their "FREE" breakfast variety which was a delight and the attendant was very kind and her service was a "10". My check out was prompt and easy. All in all I can say that I will be making this hotel my number one choice as I will be handling business in the area quite often, and I will recommend it to my colleagues.More</t>
   </si>
   <si>
+    <t>Lisette B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r176659167-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1883,6 +2186,9 @@
     <t>Responded September 18, 2013</t>
   </si>
   <si>
+    <t>Virginia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r175171785-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1901,6 +2207,9 @@
     <t>Responded September 10, 2013</t>
   </si>
   <si>
+    <t>Karen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r167240011-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1913,6 +2222,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Squirrel777999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r165784145-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1934,6 +2246,9 @@
     <t>It gave me a sleepless night.... gave me paranoia of someone just busting into my room (since the deadbolt lock did not even work!) I could hear which part of the room the person upstairs is walking to. Smelt like weed the whole time and again it got me paranoid to the point that I am in Portland now and I still think I smell like that room! The hallway was nauseating and I even thought of sleeping in my car! The pictures are deceiving!More</t>
   </si>
   <si>
+    <t>William S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r164392490-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
   </si>
   <si>
@@ -1941,6 +2256,9 @@
   </si>
   <si>
     <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>toptravel101</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d3533430-r152557370-Travelodge_Inn_Suites_by_Wyndham_Gardena_CA-Gardena_California.html</t>
@@ -2466,43 +2784,47 @@
       <c r="A2" t="n">
         <v>27075</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2526,50 +2848,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27075</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2593,50 +2919,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27075</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2660,50 +2990,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27075</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2727,35 +3061,39 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27075</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2763,10 +3101,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2787,36 +3125,37 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27075</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2824,10 +3163,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2848,36 +3187,37 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27075</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2885,10 +3225,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2909,36 +3249,37 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27075</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2946,10 +3287,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2970,36 +3311,37 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27075</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3007,10 +3349,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3031,49 +3373,50 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27075</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3097,50 +3440,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27075</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3164,50 +3511,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27075</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3227,48 +3578,52 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27075</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3292,50 +3647,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27075</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3347,56 +3706,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="X15" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Y15" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27075</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3418,56 +3781,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="X16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Y16" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27075</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3479,56 +3846,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="X17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Y17" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27075</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3550,54 +3921,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="X18" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Y18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27075</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3619,56 +3994,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="X19" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Y19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27075</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3690,54 +4069,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X20" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27075</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3759,54 +4142,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X21" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27075</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3828,56 +4215,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X22" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27075</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3899,56 +4290,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X23" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y23" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27075</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3970,56 +4365,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X24" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y24" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27075</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4041,54 +4440,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="X25" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27075</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4110,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="X26" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Y26" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27075</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4181,56 +4588,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="X27" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Y27" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27075</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4248,56 +4659,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="X28" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Y28" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27075</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4319,56 +4734,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="X29" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Y29" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27075</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4390,54 +4809,58 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="X30" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Y30" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27075</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4459,56 +4882,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27075</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4530,54 +4957,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="X32" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Y32" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27075</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4599,54 +5030,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="X33" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Y33" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27075</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>253</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4668,41 +5103,45 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Y34" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27075</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>257</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4710,10 +5149,10 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4734,51 +5173,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27075</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>262</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4802,48 +5242,52 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27075</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4867,50 +5311,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27075</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4934,35 +5382,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27075</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4970,10 +5422,10 @@
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4994,51 +5446,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27075</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>283</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5062,50 +5515,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27075</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>289</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="O41" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5129,50 +5586,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27075</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>296</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5190,50 +5651,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27075</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>303</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5257,50 +5722,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27075</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5324,35 +5793,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27075</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="J45" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5360,10 +5833,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5384,36 +5857,37 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27075</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>320</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5421,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5445,49 +5919,50 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27075</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5509,54 +5984,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="X47" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="Y47" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27075</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>331</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5578,54 +6057,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="X48" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="Y48" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27075</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>335</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5647,56 +6130,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="X49" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="Y49" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27075</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -5720,35 +6207,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27075</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>346</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="J51" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5756,10 +6247,10 @@
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5780,51 +6271,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27075</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>350</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="J52" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5842,50 +6334,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27075</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>357</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="J53" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="K53" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5903,50 +6399,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27075</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>363</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="J54" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="K54" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="L54" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="O54" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5970,50 +6470,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27075</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>369</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="J55" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="K55" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="O55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6033,35 +6537,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27075</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>375</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="J56" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -6069,10 +6577,10 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -6093,51 +6601,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27075</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="J57" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="K57" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6161,35 +6670,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27075</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>386</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="J58" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -6197,10 +6710,10 @@
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="O58" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6221,51 +6734,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27075</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="J59" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6289,35 +6803,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27075</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="J60" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6325,10 +6843,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="O60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6349,51 +6867,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27075</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>401</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="J61" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="K61" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6407,50 +6926,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27075</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>408</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="J62" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="K62" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="O62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6474,50 +6997,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27075</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>415</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="O63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6531,48 +7058,52 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27075</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>422</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="J64" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6596,50 +7127,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27075</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>426</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="J65" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="K65" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6661,54 +7196,58 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="X65" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="Y65" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27075</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>436</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="J66" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6730,56 +7269,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="X66" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="Y66" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27075</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>440</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="J67" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="K67" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="L67" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6801,56 +7344,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="X67" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="Y67" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27075</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>447</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="J68" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="K68" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6866,56 +7413,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="X68" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27075</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>391</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="J69" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6937,41 +7488,45 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="X69" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="Y69" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27075</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="J70" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6979,10 +7534,10 @@
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7003,36 +7558,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>27075</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>465</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="J71" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -7040,10 +7596,10 @@
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="O71" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7064,36 +7620,37 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>27075</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>470</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="J72" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -7101,10 +7658,10 @@
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7125,36 +7682,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>27075</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>474</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="J73" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -7162,10 +7720,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7186,51 +7744,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>27075</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>477</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="J74" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="K74" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7252,54 +7811,58 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="X74" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="Y74" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>27075</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>487</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="J75" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7321,54 +7884,58 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="X75" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="Y75" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>27075</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>491</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="J76" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7390,56 +7957,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="X76" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="Y76" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>27075</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>497</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="J77" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="K77" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="L77" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7461,54 +8032,58 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="X77" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="Y77" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>27075</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>505</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="J78" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="O78" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7530,56 +8105,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="X78" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="Y78" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>27075</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>331</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="J79" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="K79" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="L79" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7601,56 +8180,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="X79" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="Y79" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>27075</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>518</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="J80" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="K80" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="L80" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7662,56 +8245,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X80" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y80" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>27075</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>470</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="J81" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="K81" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="L81" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="O81" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7733,56 +8320,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X81" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y81" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>27075</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>534</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="J82" t="s">
-        <v>463</v>
+        <v>537</v>
       </c>
       <c r="K82" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="L82" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7804,54 +8395,58 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X82" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y82" t="s">
-        <v>466</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>27075</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>541</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="J83" t="s">
-        <v>469</v>
+        <v>544</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7873,56 +8468,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>470</v>
+        <v>545</v>
       </c>
       <c r="X83" t="s">
-        <v>471</v>
+        <v>546</v>
       </c>
       <c r="Y83" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>27075</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>547</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="J84" t="s">
-        <v>474</v>
+        <v>550</v>
       </c>
       <c r="K84" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="O84" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7944,54 +8543,58 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X84" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y84" t="s">
-        <v>477</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>27075</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>554</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>479</v>
+        <v>556</v>
       </c>
       <c r="J85" t="s">
-        <v>480</v>
+        <v>557</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>481</v>
+        <v>558</v>
       </c>
       <c r="O85" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8013,54 +8616,58 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X85" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y85" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>27075</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>559</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="J86" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="O86" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8082,54 +8689,58 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X86" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y86" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>27075</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>564</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="J87" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="O87" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8151,56 +8762,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="X87" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Y87" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>27075</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>568</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="J88" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="K88" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="L88" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8218,50 +8833,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>27075</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>576</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>496</v>
+        <v>577</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>497</v>
+        <v>578</v>
       </c>
       <c r="J89" t="s">
-        <v>498</v>
+        <v>579</v>
       </c>
       <c r="K89" t="s">
-        <v>499</v>
+        <v>580</v>
       </c>
       <c r="L89" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8285,48 +8904,52 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>500</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>27075</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>583</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="J90" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="O90" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8350,48 +8973,52 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>27075</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>587</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>505</v>
+        <v>588</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>506</v>
+        <v>589</v>
       </c>
       <c r="J91" t="s">
-        <v>507</v>
+        <v>590</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="O91" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -8415,50 +9042,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>27075</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>591</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="J92" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="K92" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="L92" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8482,35 +9113,39 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>27075</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>599</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>516</v>
+        <v>601</v>
       </c>
       <c r="J93" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8518,10 +9153,10 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -8542,36 +9177,37 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>27075</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>386</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="J94" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8579,10 +9215,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8603,49 +9239,50 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>27075</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>607</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="J95" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="O95" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8669,50 +9306,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>27075</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>612</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>526</v>
+        <v>613</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>527</v>
+        <v>614</v>
       </c>
       <c r="J96" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="K96" t="s">
-        <v>529</v>
+        <v>616</v>
       </c>
       <c r="L96" t="s">
-        <v>530</v>
+        <v>617</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="O96" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -8726,41 +9367,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>530</v>
+        <v>617</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>27075</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>618</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>531</v>
+        <v>619</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>532</v>
+        <v>620</v>
       </c>
       <c r="J97" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="K97" t="s">
-        <v>533</v>
+        <v>621</v>
       </c>
       <c r="L97" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
@@ -8779,35 +9424,39 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>27075</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>623</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>536</v>
+        <v>625</v>
       </c>
       <c r="J98" t="s">
-        <v>537</v>
+        <v>626</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8815,10 +9464,10 @@
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>538</v>
+        <v>627</v>
       </c>
       <c r="O98" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8839,36 +9488,37 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>27075</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>628</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="J99" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s"/>
@@ -8876,10 +9526,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>538</v>
+        <v>627</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -8900,42 +9550,43 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>27075</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>632</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>542</v>
+        <v>633</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="J100" t="s">
-        <v>541</v>
+        <v>631</v>
       </c>
       <c r="K100" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="L100" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
@@ -8964,50 +9615,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>27075</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>637</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="J101" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="K101" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="L101" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O101" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9029,56 +9684,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="X101" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="Y101" t="s">
-        <v>554</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>27075</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>647</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>556</v>
+        <v>649</v>
       </c>
       <c r="J102" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="K102" t="s">
-        <v>557</v>
+        <v>650</v>
       </c>
       <c r="L102" t="s">
-        <v>558</v>
+        <v>651</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9100,56 +9759,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="X102" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="Y102" t="s">
-        <v>559</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>27075</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>653</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="J103" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="K103" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="L103" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9171,54 +9834,58 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="X103" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="Y103" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>27075</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>660</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>566</v>
+        <v>661</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>567</v>
+        <v>662</v>
       </c>
       <c r="J104" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9240,56 +9907,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="X104" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="Y104" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>27075</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>666</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>572</v>
+        <v>668</v>
       </c>
       <c r="J105" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="K105" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
       <c r="L105" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O105" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9311,56 +9982,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="X105" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="Y105" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>27075</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>672</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>576</v>
+        <v>673</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>577</v>
+        <v>674</v>
       </c>
       <c r="J106" t="s">
-        <v>578</v>
+        <v>675</v>
       </c>
       <c r="K106" t="s">
-        <v>579</v>
+        <v>676</v>
       </c>
       <c r="L106" t="s">
-        <v>580</v>
+        <v>677</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O106" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9382,47 +10057,51 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="X106" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="Y106" t="s">
-        <v>581</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>27075</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>679</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>582</v>
+        <v>680</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>583</v>
+        <v>681</v>
       </c>
       <c r="J107" t="s">
-        <v>584</v>
+        <v>682</v>
       </c>
       <c r="K107" t="s">
-        <v>585</v>
+        <v>683</v>
       </c>
       <c r="L107" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
@@ -9449,56 +10128,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="X107" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="Y107" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>27075</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>350</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="J108" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="K108" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="L108" t="s">
-        <v>594</v>
+        <v>692</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="O108" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9520,47 +10203,51 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="X108" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="Y108" t="s">
-        <v>595</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>27075</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>694</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="J109" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="K109" t="s">
-        <v>598</v>
+        <v>697</v>
       </c>
       <c r="L109" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
@@ -9587,56 +10274,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="X109" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="Y109" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>27075</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>700</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="J110" t="s">
-        <v>603</v>
+        <v>703</v>
       </c>
       <c r="K110" t="s">
-        <v>604</v>
+        <v>704</v>
       </c>
       <c r="L110" t="s">
-        <v>605</v>
+        <v>705</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9658,54 +10349,58 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="X110" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="Y110" t="s">
-        <v>607</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>27075</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>708</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="J111" t="s">
-        <v>610</v>
+        <v>711</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M111" t="n">
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="O111" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -9727,54 +10422,58 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>611</v>
+        <v>712</v>
       </c>
       <c r="X111" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
       <c r="Y111" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>27075</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>714</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>613</v>
+        <v>715</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>614</v>
+        <v>716</v>
       </c>
       <c r="J112" t="s">
-        <v>615</v>
+        <v>717</v>
       </c>
       <c r="K112" t="s"/>
       <c r="L112" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>616</v>
+        <v>718</v>
       </c>
       <c r="O112" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9796,54 +10495,58 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="X112" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="Y112" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>27075</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>721</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>619</v>
+        <v>722</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>620</v>
+        <v>723</v>
       </c>
       <c r="J113" t="s">
-        <v>621</v>
+        <v>724</v>
       </c>
       <c r="K113" t="s"/>
       <c r="L113" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M113" t="n">
         <v>4</v>
       </c>
       <c r="N113" t="s">
-        <v>622</v>
+        <v>725</v>
       </c>
       <c r="O113" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P113" t="n">
         <v>4</v>
@@ -9865,56 +10568,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="X113" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="Y113" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>27075</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>726</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="J114" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
       <c r="K114" t="s">
-        <v>626</v>
+        <v>730</v>
       </c>
       <c r="L114" t="s">
-        <v>627</v>
+        <v>731</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>628</v>
+        <v>732</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -9936,54 +10643,58 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="X114" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="Y114" t="s">
-        <v>629</v>
+        <v>733</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>27075</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>734</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>630</v>
+        <v>735</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>631</v>
+        <v>736</v>
       </c>
       <c r="J115" t="s">
-        <v>632</v>
+        <v>737</v>
       </c>
       <c r="K115" t="s"/>
       <c r="L115" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>628</v>
+        <v>732</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10005,56 +10716,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="X115" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="Y115" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>27075</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>738</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>633</v>
+        <v>739</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="J116" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="K116" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
       <c r="L116" t="s">
-        <v>637</v>
+        <v>743</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -10076,13 +10791,13 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="X116" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="Y116" t="s">
-        <v>639</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
